--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="814">
   <si>
     <t>Index</t>
   </si>
@@ -2107,124 +2107,127 @@
     <t>Sam Hous St</t>
   </si>
   <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>E Michigan</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Colorado St</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Miss State</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Oklahoma St</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Fresno St</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
+  </si>
+  <si>
+    <t>Old Dominion</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
     <t>Alabama</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas Tech</t>
-  </si>
-  <si>
-    <t>E Michigan</t>
-  </si>
-  <si>
-    <t>Baylor</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Colorado St</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Miss State</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Oklahoma St</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>Fresno St</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
-    <t>Old Dominion</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
   </si>
   <si>
     <t>Air Force</t>
@@ -2871,7 +2874,7 @@
         <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2">
         <v>60.7</v>
@@ -2906,7 +2909,7 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H3">
         <v>72.3</v>
@@ -2941,7 +2944,7 @@
         <v>66.3</v>
       </c>
       <c r="G4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H4">
         <v>54.7</v>
@@ -2976,7 +2979,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H5">
         <v>57.3</v>
@@ -3011,7 +3014,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H6" t="s">
         <v>573</v>
@@ -3046,7 +3049,7 @@
         <v>50.7</v>
       </c>
       <c r="G7" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H7" t="s">
         <v>573</v>
@@ -3081,7 +3084,7 @@
         <v>44.8</v>
       </c>
       <c r="G8" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H8" t="s">
         <v>573</v>
@@ -3116,7 +3119,7 @@
         <v>83.8</v>
       </c>
       <c r="G9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H9">
         <v>61.7</v>
@@ -3151,7 +3154,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H10">
         <v>66</v>
@@ -3186,7 +3189,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H11">
         <v>77.3</v>
@@ -3221,7 +3224,7 @@
         <v>38.4</v>
       </c>
       <c r="G12" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H12" t="s">
         <v>573</v>
@@ -3256,7 +3259,7 @@
         <v>63.6</v>
       </c>
       <c r="G13" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H13" t="s">
         <v>573</v>
@@ -3291,7 +3294,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H14" t="s">
         <v>573</v>
@@ -3326,7 +3329,7 @@
         <v>64.3</v>
       </c>
       <c r="G15" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H15">
         <v>64.7</v>
@@ -3361,7 +3364,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H16">
         <v>74.3</v>
@@ -3396,7 +3399,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="G17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H17">
         <v>60</v>
@@ -3431,7 +3434,7 @@
         <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H18">
         <v>64</v>
@@ -3466,7 +3469,7 @@
         <v>68.5</v>
       </c>
       <c r="G19" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H19">
         <v>72.7</v>
@@ -3501,7 +3504,7 @@
         <v>35.6</v>
       </c>
       <c r="G20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H20" t="s">
         <v>573</v>
@@ -3536,7 +3539,7 @@
         <v>52.8</v>
       </c>
       <c r="G21" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H21" t="s">
         <v>573</v>
@@ -3571,7 +3574,7 @@
         <v>52.4</v>
       </c>
       <c r="G22" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H22" t="s">
         <v>573</v>
@@ -3606,7 +3609,7 @@
         <v>63.2</v>
       </c>
       <c r="G23" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H23" t="s">
         <v>573</v>
@@ -3641,7 +3644,7 @@
         <v>40.7</v>
       </c>
       <c r="G24" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H24" t="s">
         <v>573</v>
@@ -3676,7 +3679,7 @@
         <v>54.6</v>
       </c>
       <c r="G25" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H25" t="s">
         <v>573</v>
@@ -3711,7 +3714,7 @@
         <v>52.5</v>
       </c>
       <c r="G26" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H26" t="s">
         <v>573</v>
@@ -3746,19 +3749,19 @@
         <v>44.2</v>
       </c>
       <c r="G27" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H27">
-        <v>69.7</v>
+        <v>77.3</v>
       </c>
       <c r="I27">
-        <v>0.354</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J27">
-        <v>25</v>
+        <v>20.7</v>
       </c>
       <c r="K27">
-        <v>0.405</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3781,7 +3784,7 @@
         <v>56.2</v>
       </c>
       <c r="G28" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H28" t="s">
         <v>573</v>
@@ -3816,7 +3819,7 @@
         <v>56.2</v>
       </c>
       <c r="G29" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H29" t="s">
         <v>573</v>
@@ -3851,7 +3854,7 @@
         <v>103.6</v>
       </c>
       <c r="G30" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H30">
         <v>72</v>
@@ -3886,7 +3889,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H31">
         <v>70.3</v>
@@ -3921,7 +3924,7 @@
         <v>77.59999999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H32" t="s">
         <v>573</v>
@@ -3956,7 +3959,7 @@
         <v>90.2</v>
       </c>
       <c r="G33" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H33">
         <v>82</v>
@@ -3991,7 +3994,7 @@
         <v>79.40000000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H34" t="s">
         <v>573</v>
@@ -4026,7 +4029,7 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H35" t="s">
         <v>573</v>
@@ -4061,7 +4064,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H36">
         <v>67.7</v>
@@ -4096,7 +4099,7 @@
         <v>82.2</v>
       </c>
       <c r="G37" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H37">
         <v>72.3</v>
@@ -4131,7 +4134,7 @@
         <v>89.5</v>
       </c>
       <c r="G38" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H38">
         <v>69</v>
@@ -4166,7 +4169,7 @@
         <v>92.5</v>
       </c>
       <c r="G39" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H39">
         <v>71.7</v>
@@ -4201,7 +4204,7 @@
         <v>74.3</v>
       </c>
       <c r="G40" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H40">
         <v>66.7</v>
@@ -4236,7 +4239,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="G41" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H41">
         <v>50.7</v>
@@ -4271,7 +4274,7 @@
         <v>46.1</v>
       </c>
       <c r="G42" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H42" t="s">
         <v>573</v>
@@ -4306,7 +4309,7 @@
         <v>82.2</v>
       </c>
       <c r="G43" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H43">
         <v>69.7</v>
@@ -4341,7 +4344,7 @@
         <v>62.5</v>
       </c>
       <c r="G44" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H44" t="s">
         <v>573</v>
@@ -4376,7 +4379,7 @@
         <v>83</v>
       </c>
       <c r="G45" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H45">
         <v>57</v>
@@ -4411,7 +4414,7 @@
         <v>25.5</v>
       </c>
       <c r="G46" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H46" t="s">
         <v>573</v>
@@ -4446,7 +4449,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H47">
         <v>62.7</v>
@@ -4481,7 +4484,7 @@
         <v>74.2</v>
       </c>
       <c r="G48" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H48">
         <v>69.3</v>
@@ -4516,7 +4519,7 @@
         <v>51.1</v>
       </c>
       <c r="G49" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H49" t="s">
         <v>573</v>
@@ -4551,7 +4554,7 @@
         <v>78.8</v>
       </c>
       <c r="G50" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H50">
         <v>69.3</v>
@@ -4586,7 +4589,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="G51" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H51">
         <v>76</v>
@@ -4621,7 +4624,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="G52" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H52">
         <v>75.7</v>
@@ -4656,7 +4659,7 @@
         <v>107.2</v>
       </c>
       <c r="G53" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H53">
         <v>73.7</v>
@@ -4691,7 +4694,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H54">
         <v>61.3</v>
@@ -4726,7 +4729,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H55">
         <v>70.7</v>
@@ -4761,7 +4764,7 @@
         <v>59.7</v>
       </c>
       <c r="G56" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H56">
         <v>72.7</v>
@@ -4796,7 +4799,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="G57" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H57">
         <v>76</v>
@@ -4831,7 +4834,7 @@
         <v>44.6</v>
       </c>
       <c r="G58" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H58" t="s">
         <v>573</v>
@@ -4866,7 +4869,7 @@
         <v>56.7</v>
       </c>
       <c r="G59" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H59" t="s">
         <v>573</v>
@@ -4901,7 +4904,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="G60" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H60">
         <v>75.3</v>
@@ -4936,7 +4939,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G61" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H61">
         <v>63.7</v>
@@ -4971,7 +4974,7 @@
         <v>49.1</v>
       </c>
       <c r="G62" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H62" t="s">
         <v>573</v>
@@ -5006,7 +5009,7 @@
         <v>69.8</v>
       </c>
       <c r="G63" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H63" t="s">
         <v>573</v>
@@ -5041,7 +5044,7 @@
         <v>77.2</v>
       </c>
       <c r="G64" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H64">
         <v>70.3</v>
@@ -5076,7 +5079,7 @@
         <v>69.2</v>
       </c>
       <c r="G65" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H65" t="s">
         <v>573</v>
@@ -5111,7 +5114,7 @@
         <v>105.2</v>
       </c>
       <c r="G66" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H66">
         <v>76</v>
@@ -5146,7 +5149,7 @@
         <v>49.9</v>
       </c>
       <c r="G67" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H67">
         <v>67.3</v>
@@ -5181,7 +5184,7 @@
         <v>44.8</v>
       </c>
       <c r="G68" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H68" t="s">
         <v>573</v>
@@ -5216,7 +5219,7 @@
         <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H69">
         <v>69.7</v>
@@ -5251,7 +5254,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G70" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H70">
         <v>66.7</v>
@@ -5286,7 +5289,7 @@
         <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H71">
         <v>70.7</v>
@@ -5321,7 +5324,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G72" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H72">
         <v>65</v>
@@ -5356,7 +5359,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G73" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H73">
         <v>75</v>
@@ -5391,7 +5394,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H74">
         <v>62.7</v>
@@ -5426,7 +5429,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="G75" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H75" t="s">
         <v>573</v>
@@ -5461,7 +5464,7 @@
         <v>96.3</v>
       </c>
       <c r="G76" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H76">
         <v>61.7</v>
@@ -5496,7 +5499,7 @@
         <v>70.3</v>
       </c>
       <c r="G77" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H77" t="s">
         <v>573</v>
@@ -5531,7 +5534,7 @@
         <v>114</v>
       </c>
       <c r="G78" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H78">
         <v>65.3</v>
@@ -5566,7 +5569,7 @@
         <v>45.2</v>
       </c>
       <c r="G79" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H79" t="s">
         <v>573</v>
@@ -5601,7 +5604,7 @@
         <v>99.5</v>
       </c>
       <c r="G80" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H80" t="s">
         <v>573</v>
@@ -5636,7 +5639,7 @@
         <v>67.8</v>
       </c>
       <c r="G81" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H81" t="s">
         <v>573</v>
@@ -5671,7 +5674,7 @@
         <v>83.3</v>
       </c>
       <c r="G82" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H82">
         <v>58.3</v>
@@ -5706,7 +5709,7 @@
         <v>57.2</v>
       </c>
       <c r="G83" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H83" t="s">
         <v>573</v>
@@ -5741,7 +5744,7 @@
         <v>72.5</v>
       </c>
       <c r="G84" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H84" t="s">
         <v>573</v>
@@ -5776,7 +5779,7 @@
         <v>-18.2</v>
       </c>
       <c r="G85" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H85" t="s">
         <v>573</v>
@@ -5811,7 +5814,7 @@
         <v>64.3</v>
       </c>
       <c r="G86" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H86">
         <v>70.7</v>
@@ -5846,7 +5849,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G87" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H87">
         <v>76</v>
@@ -5881,7 +5884,7 @@
         <v>101.2</v>
       </c>
       <c r="G88" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H88">
         <v>83.7</v>
@@ -5916,7 +5919,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G89" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H89">
         <v>67.3</v>
@@ -5951,7 +5954,7 @@
         <v>84.7</v>
       </c>
       <c r="G90" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H90">
         <v>82.7</v>
@@ -5986,7 +5989,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="G91" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H91">
         <v>65</v>
@@ -6021,7 +6024,7 @@
         <v>109</v>
       </c>
       <c r="G92" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H92">
         <v>69</v>
@@ -6056,7 +6059,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="G93" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H93" t="s">
         <v>573</v>
@@ -6091,7 +6094,7 @@
         <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H94" t="s">
         <v>573</v>
@@ -6126,7 +6129,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G95" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H95">
         <v>68.3</v>
@@ -6161,7 +6164,7 @@
         <v>72.7</v>
       </c>
       <c r="G96" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H96" t="s">
         <v>573</v>
@@ -6190,13 +6193,13 @@
         <v>559</v>
       </c>
       <c r="E97" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="F97">
         <v>112.7</v>
       </c>
       <c r="G97" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H97">
         <v>69.7</v>
@@ -6225,13 +6228,13 @@
         <v>560</v>
       </c>
       <c r="E98" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F98">
         <v>88.09999999999999</v>
       </c>
       <c r="G98" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H98">
         <v>68.7</v>
@@ -6266,7 +6269,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="G99" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H99" t="s">
         <v>573</v>
@@ -6301,7 +6304,7 @@
         <v>37.1</v>
       </c>
       <c r="G100" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H100" t="s">
         <v>573</v>
@@ -6336,7 +6339,7 @@
         <v>72</v>
       </c>
       <c r="G101" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H101" t="s">
         <v>573</v>
@@ -6365,13 +6368,13 @@
         <v>564</v>
       </c>
       <c r="E102" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F102">
         <v>77.7</v>
       </c>
       <c r="G102" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H102">
         <v>79.7</v>
@@ -6406,7 +6409,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G103" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H103">
         <v>67.3</v>
@@ -6435,13 +6438,13 @@
         <v>566</v>
       </c>
       <c r="E104" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F104">
         <v>112.4</v>
       </c>
       <c r="G104" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H104">
         <v>79.7</v>
@@ -6470,13 +6473,13 @@
         <v>567</v>
       </c>
       <c r="E105" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F105">
         <v>80.09999999999999</v>
       </c>
       <c r="G105" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H105">
         <v>62.3</v>
@@ -6511,7 +6514,7 @@
         <v>52.6</v>
       </c>
       <c r="G106" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H106" t="s">
         <v>573</v>
@@ -6546,7 +6549,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="G107" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H107">
         <v>77.3</v>
@@ -6581,7 +6584,7 @@
         <v>60.5</v>
       </c>
       <c r="G108" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H108" t="s">
         <v>573</v>
@@ -6616,7 +6619,7 @@
         <v>57.7</v>
       </c>
       <c r="G109" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H109" t="s">
         <v>573</v>
@@ -6645,13 +6648,13 @@
         <v>572</v>
       </c>
       <c r="E110" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F110">
         <v>68.8</v>
       </c>
       <c r="G110" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H110">
         <v>67</v>
@@ -6715,13 +6718,13 @@
         <v>574</v>
       </c>
       <c r="E112" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F112">
         <v>89.3</v>
       </c>
       <c r="G112" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H112">
         <v>73</v>
@@ -6750,13 +6753,13 @@
         <v>575</v>
       </c>
       <c r="E113" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F113">
         <v>80.2</v>
       </c>
       <c r="G113" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H113">
         <v>55.3</v>
@@ -6785,13 +6788,13 @@
         <v>576</v>
       </c>
       <c r="E114" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F114">
         <v>109</v>
       </c>
       <c r="G114" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H114">
         <v>63.7</v>
@@ -6820,13 +6823,13 @@
         <v>577</v>
       </c>
       <c r="E115" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F115">
         <v>59</v>
       </c>
       <c r="G115" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H115">
         <v>70.7</v>
@@ -6855,13 +6858,13 @@
         <v>578</v>
       </c>
       <c r="E116" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F116">
         <v>63.9</v>
       </c>
       <c r="G116" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H116">
         <v>66.3</v>
@@ -6896,7 +6899,7 @@
         <v>-6.2</v>
       </c>
       <c r="G117" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H117" t="s">
         <v>573</v>
@@ -6925,13 +6928,13 @@
         <v>580</v>
       </c>
       <c r="E118" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F118">
         <v>84.09999999999999</v>
       </c>
       <c r="G118" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H118">
         <v>60.3</v>
@@ -6960,13 +6963,13 @@
         <v>581</v>
       </c>
       <c r="E119" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F119">
         <v>81.59999999999999</v>
       </c>
       <c r="G119" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H119">
         <v>66</v>
@@ -7001,7 +7004,7 @@
         <v>85.8</v>
       </c>
       <c r="G120" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H120">
         <v>63.3</v>
@@ -7030,13 +7033,13 @@
         <v>583</v>
       </c>
       <c r="E121" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F121">
         <v>75.40000000000001</v>
       </c>
       <c r="G121" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H121">
         <v>69.3</v>
@@ -7071,7 +7074,7 @@
         <v>56.3</v>
       </c>
       <c r="G122" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H122">
         <v>69</v>
@@ -7100,13 +7103,13 @@
         <v>585</v>
       </c>
       <c r="E123" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F123">
         <v>119.7</v>
       </c>
       <c r="G123" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H123">
         <v>61</v>
@@ -7141,7 +7144,7 @@
         <v>51.2</v>
       </c>
       <c r="G124" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H124" t="s">
         <v>573</v>
@@ -7176,7 +7179,7 @@
         <v>70.2</v>
       </c>
       <c r="G125" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H125" t="s">
         <v>573</v>
@@ -7205,13 +7208,13 @@
         <v>588</v>
       </c>
       <c r="E126" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F126">
         <v>100.6</v>
       </c>
       <c r="G126" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H126">
         <v>59.3</v>
@@ -7246,7 +7249,7 @@
         <v>64.8</v>
       </c>
       <c r="G127" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H127" t="s">
         <v>573</v>
@@ -7281,7 +7284,7 @@
         <v>26.2</v>
       </c>
       <c r="G128" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H128" t="s">
         <v>573</v>
@@ -7316,7 +7319,7 @@
         <v>47.5</v>
       </c>
       <c r="G129" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H129" t="s">
         <v>573</v>
@@ -7345,13 +7348,13 @@
         <v>592</v>
       </c>
       <c r="E130" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F130">
         <v>111.3</v>
       </c>
       <c r="G130" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H130">
         <v>64.3</v>
@@ -7380,13 +7383,13 @@
         <v>593</v>
       </c>
       <c r="E131" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F131">
         <v>88.90000000000001</v>
       </c>
       <c r="G131" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H131">
         <v>69.7</v>
@@ -7415,13 +7418,13 @@
         <v>594</v>
       </c>
       <c r="E132" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F132">
         <v>117.6</v>
       </c>
       <c r="G132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H132">
         <v>64.3</v>
@@ -7456,7 +7459,7 @@
         <v>46.2</v>
       </c>
       <c r="G133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H133" t="s">
         <v>573</v>
@@ -7485,13 +7488,13 @@
         <v>596</v>
       </c>
       <c r="E134" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F134">
         <v>101.8</v>
       </c>
       <c r="G134" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H134">
         <v>80.3</v>
@@ -7520,13 +7523,13 @@
         <v>597</v>
       </c>
       <c r="E135" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F135">
         <v>95.09999999999999</v>
       </c>
       <c r="G135" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H135">
         <v>84</v>
@@ -7555,13 +7558,13 @@
         <v>598</v>
       </c>
       <c r="E136" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F136">
         <v>82.7</v>
       </c>
       <c r="G136" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H136">
         <v>68.3</v>
@@ -7590,13 +7593,13 @@
         <v>599</v>
       </c>
       <c r="E137" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F137">
         <v>64.09999999999999</v>
       </c>
       <c r="G137" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H137">
         <v>73</v>
@@ -7625,13 +7628,13 @@
         <v>600</v>
       </c>
       <c r="E138" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F138">
         <v>86</v>
       </c>
       <c r="G138" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H138">
         <v>76.3</v>
@@ -7666,7 +7669,7 @@
         <v>55.1</v>
       </c>
       <c r="G139" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H139" t="s">
         <v>573</v>
@@ -7701,7 +7704,7 @@
         <v>41.7</v>
       </c>
       <c r="G140" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H140" t="s">
         <v>573</v>
@@ -7736,7 +7739,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="G141" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H141" t="s">
         <v>573</v>
@@ -7771,7 +7774,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G142" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H142" t="s">
         <v>573</v>
@@ -7806,7 +7809,7 @@
         <v>30.2</v>
       </c>
       <c r="G143" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H143" t="s">
         <v>573</v>
@@ -7841,7 +7844,7 @@
         <v>51</v>
       </c>
       <c r="G144" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H144" t="s">
         <v>573</v>
@@ -7870,13 +7873,13 @@
         <v>607</v>
       </c>
       <c r="E145" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F145">
         <v>78.59999999999999</v>
       </c>
       <c r="G145" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H145">
         <v>69</v>
@@ -7905,13 +7908,13 @@
         <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F146">
         <v>77.09999999999999</v>
       </c>
       <c r="G146" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H146">
         <v>68</v>
@@ -7940,13 +7943,13 @@
         <v>608</v>
       </c>
       <c r="E147" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F147">
         <v>32.5</v>
       </c>
       <c r="G147" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H147">
         <v>63.7</v>
@@ -7981,7 +7984,7 @@
         <v>54.6</v>
       </c>
       <c r="G148" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H148" t="s">
         <v>573</v>
@@ -8016,7 +8019,7 @@
         <v>44.6</v>
       </c>
       <c r="G149" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H149" t="s">
         <v>573</v>
@@ -8045,13 +8048,13 @@
         <v>611</v>
       </c>
       <c r="E150" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F150">
         <v>86.90000000000001</v>
       </c>
       <c r="G150" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H150">
         <v>62.3</v>
@@ -8086,7 +8089,7 @@
         <v>64</v>
       </c>
       <c r="G151" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H151" t="s">
         <v>573</v>
@@ -8115,13 +8118,13 @@
         <v>613</v>
       </c>
       <c r="E152" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F152">
         <v>70.59999999999999</v>
       </c>
       <c r="G152" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H152">
         <v>76</v>
@@ -8150,13 +8153,13 @@
         <v>614</v>
       </c>
       <c r="E153" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F153">
         <v>86.59999999999999</v>
       </c>
       <c r="G153" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H153">
         <v>62.7</v>
@@ -8185,13 +8188,13 @@
         <v>615</v>
       </c>
       <c r="E154" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F154">
         <v>41.9</v>
       </c>
       <c r="G154" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H154">
         <v>71</v>
@@ -8226,7 +8229,7 @@
         <v>44.9</v>
       </c>
       <c r="G155" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H155" t="s">
         <v>573</v>
@@ -8255,13 +8258,13 @@
         <v>617</v>
       </c>
       <c r="E156" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F156">
         <v>68.59999999999999</v>
       </c>
       <c r="G156" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H156">
         <v>62.3</v>
@@ -8296,7 +8299,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="G157" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H157">
         <v>59</v>
@@ -8325,13 +8328,13 @@
         <v>618</v>
       </c>
       <c r="E158" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F158">
         <v>88.2</v>
       </c>
       <c r="G158" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H158">
         <v>70.7</v>
@@ -8360,13 +8363,13 @@
         <v>619</v>
       </c>
       <c r="E159" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F159">
         <v>81.5</v>
       </c>
       <c r="G159" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H159">
         <v>56</v>
@@ -8395,13 +8398,13 @@
         <v>397</v>
       </c>
       <c r="E160" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F160">
         <v>83.7</v>
       </c>
       <c r="G160" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H160">
         <v>69</v>
@@ -8430,13 +8433,13 @@
         <v>620</v>
       </c>
       <c r="E161" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F161">
         <v>95.59999999999999</v>
       </c>
       <c r="G161" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H161">
         <v>60.3</v>
@@ -8465,13 +8468,13 @@
         <v>621</v>
       </c>
       <c r="E162" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F162">
         <v>82.5</v>
       </c>
       <c r="G162" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H162">
         <v>62.7</v>
@@ -8506,7 +8509,7 @@
         <v>52.8</v>
       </c>
       <c r="G163" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H163" t="s">
         <v>573</v>
@@ -8535,13 +8538,13 @@
         <v>623</v>
       </c>
       <c r="E164" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F164">
         <v>96.59999999999999</v>
       </c>
       <c r="G164" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H164">
         <v>61</v>
@@ -8570,13 +8573,13 @@
         <v>624</v>
       </c>
       <c r="E165" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F165">
         <v>85</v>
       </c>
       <c r="G165" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H165">
         <v>75.7</v>
@@ -8611,7 +8614,7 @@
         <v>80.3</v>
       </c>
       <c r="G166" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H166" t="s">
         <v>573</v>
@@ -8640,13 +8643,13 @@
         <v>626</v>
       </c>
       <c r="E167" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F167">
         <v>106.7</v>
       </c>
       <c r="G167" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H167">
         <v>78.3</v>
@@ -8675,13 +8678,13 @@
         <v>627</v>
       </c>
       <c r="E168" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F168">
         <v>93.5</v>
       </c>
       <c r="G168" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H168">
         <v>61</v>
@@ -8716,7 +8719,7 @@
         <v>65.5</v>
       </c>
       <c r="G169" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H169" t="s">
         <v>573</v>
@@ -8745,13 +8748,13 @@
         <v>629</v>
       </c>
       <c r="E170" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F170">
         <v>94.3</v>
       </c>
       <c r="G170" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H170">
         <v>71.7</v>
@@ -8780,13 +8783,13 @@
         <v>630</v>
       </c>
       <c r="E171" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F171">
         <v>89.90000000000001</v>
       </c>
       <c r="G171" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H171">
         <v>67.3</v>
@@ -8821,7 +8824,7 @@
         <v>64.5</v>
       </c>
       <c r="G172" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H172">
         <v>67.3</v>
@@ -8850,13 +8853,13 @@
         <v>632</v>
       </c>
       <c r="E173" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F173">
         <v>69.5</v>
       </c>
       <c r="G173" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H173">
         <v>70</v>
@@ -8885,13 +8888,13 @@
         <v>543</v>
       </c>
       <c r="E174" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F174">
         <v>99.5</v>
       </c>
       <c r="G174" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H174">
         <v>70</v>
@@ -8926,7 +8929,7 @@
         <v>51.8</v>
       </c>
       <c r="G175" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H175" t="s">
         <v>573</v>
@@ -8961,7 +8964,7 @@
         <v>46.7</v>
       </c>
       <c r="G176" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H176" t="s">
         <v>573</v>
@@ -8996,7 +8999,7 @@
         <v>14.8</v>
       </c>
       <c r="G177" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H177" t="s">
         <v>573</v>
@@ -9031,7 +9034,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="G178" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H178" t="s">
         <v>573</v>
@@ -9060,13 +9063,13 @@
         <v>637</v>
       </c>
       <c r="E179" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F179">
         <v>67.59999999999999</v>
       </c>
       <c r="G179" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H179">
         <v>71</v>
@@ -9095,13 +9098,13 @@
         <v>638</v>
       </c>
       <c r="E180" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F180">
         <v>62.1</v>
       </c>
       <c r="G180" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H180">
         <v>71.3</v>
@@ -9130,13 +9133,13 @@
         <v>639</v>
       </c>
       <c r="E181" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F181">
         <v>121.3</v>
       </c>
       <c r="G181" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H181">
         <v>66</v>
@@ -9165,13 +9168,13 @@
         <v>640</v>
       </c>
       <c r="E182" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F182">
         <v>79.40000000000001</v>
       </c>
       <c r="G182" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H182">
         <v>66</v>
@@ -9206,7 +9209,7 @@
         <v>91.3</v>
       </c>
       <c r="G183" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H183" t="s">
         <v>573</v>
@@ -9241,7 +9244,7 @@
         <v>34.3</v>
       </c>
       <c r="G184" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H184" t="s">
         <v>573</v>
@@ -9276,7 +9279,7 @@
         <v>46.5</v>
       </c>
       <c r="G185" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H185" t="s">
         <v>573</v>
@@ -9311,7 +9314,7 @@
         <v>38.9</v>
       </c>
       <c r="G186" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H186" t="s">
         <v>573</v>
@@ -9340,13 +9343,13 @@
         <v>645</v>
       </c>
       <c r="E187" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F187">
         <v>98.3</v>
       </c>
       <c r="G187" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H187">
         <v>59.7</v>
@@ -9381,7 +9384,7 @@
         <v>43.9</v>
       </c>
       <c r="G188" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H188" t="s">
         <v>573</v>
@@ -9416,7 +9419,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G189" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H189">
         <v>72.7</v>
@@ -9451,7 +9454,7 @@
         <v>39.7</v>
       </c>
       <c r="G190" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H190" t="s">
         <v>573</v>
@@ -9480,13 +9483,13 @@
         <v>649</v>
       </c>
       <c r="E191" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F191">
         <v>76</v>
       </c>
       <c r="G191" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H191">
         <v>85.3</v>
@@ -9521,7 +9524,7 @@
         <v>109.5</v>
       </c>
       <c r="G192" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H192">
         <v>69.7</v>
@@ -9550,13 +9553,13 @@
         <v>651</v>
       </c>
       <c r="E193" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F193">
         <v>75</v>
       </c>
       <c r="G193" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H193">
         <v>81</v>
@@ -9585,13 +9588,13 @@
         <v>652</v>
       </c>
       <c r="E194" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F194">
         <v>60.7</v>
       </c>
       <c r="G194" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H194">
         <v>59.7</v>
@@ -9620,13 +9623,13 @@
         <v>653</v>
       </c>
       <c r="E195" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F195">
         <v>94.7</v>
       </c>
       <c r="G195" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H195">
         <v>60</v>
@@ -9655,13 +9658,13 @@
         <v>654</v>
       </c>
       <c r="E196" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F196">
         <v>84.2</v>
       </c>
       <c r="G196" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H196">
         <v>54</v>
@@ -9690,13 +9693,13 @@
         <v>655</v>
       </c>
       <c r="E197" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F197">
         <v>70.2</v>
       </c>
       <c r="G197" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H197">
         <v>69.3</v>
@@ -9725,13 +9728,13 @@
         <v>656</v>
       </c>
       <c r="E198" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F198">
         <v>111.7</v>
       </c>
       <c r="G198" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H198">
         <v>62.7</v>
@@ -9766,7 +9769,7 @@
         <v>68.7</v>
       </c>
       <c r="G199" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H199" t="s">
         <v>573</v>
@@ -9801,7 +9804,7 @@
         <v>63.7</v>
       </c>
       <c r="G200" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H200" t="s">
         <v>573</v>
@@ -9830,13 +9833,13 @@
         <v>438</v>
       </c>
       <c r="E201" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F201">
         <v>80.5</v>
       </c>
       <c r="G201" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H201">
         <v>62</v>
@@ -9865,13 +9868,13 @@
         <v>659</v>
       </c>
       <c r="E202" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F202">
         <v>82.3</v>
       </c>
       <c r="G202" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H202">
         <v>67.7</v>
@@ -9900,13 +9903,13 @@
         <v>660</v>
       </c>
       <c r="E203" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F203">
         <v>77.3</v>
       </c>
       <c r="G203" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H203">
         <v>68.7</v>
@@ -9935,13 +9938,13 @@
         <v>661</v>
       </c>
       <c r="E204" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F204">
         <v>72.40000000000001</v>
       </c>
       <c r="G204" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H204">
         <v>68.7</v>
@@ -9970,13 +9973,13 @@
         <v>662</v>
       </c>
       <c r="E205" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F205">
         <v>93.90000000000001</v>
       </c>
       <c r="G205" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H205">
         <v>73</v>
@@ -10011,7 +10014,7 @@
         <v>50.1</v>
       </c>
       <c r="G206" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H206" t="s">
         <v>573</v>
@@ -10040,13 +10043,13 @@
         <v>664</v>
       </c>
       <c r="E207" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F207">
         <v>77.09999999999999</v>
       </c>
       <c r="G207" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H207">
         <v>72.7</v>
@@ -10075,13 +10078,13 @@
         <v>665</v>
       </c>
       <c r="E208" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F208">
         <v>82</v>
       </c>
       <c r="G208" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H208">
         <v>60</v>
@@ -10110,13 +10113,13 @@
         <v>666</v>
       </c>
       <c r="E209" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F209">
         <v>83.90000000000001</v>
       </c>
       <c r="G209" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H209">
         <v>69.7</v>
@@ -10145,13 +10148,13 @@
         <v>667</v>
       </c>
       <c r="E210" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F210">
         <v>76.40000000000001</v>
       </c>
       <c r="G210" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H210">
         <v>64</v>
@@ -10186,7 +10189,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="G211" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H211" t="s">
         <v>573</v>
@@ -10215,13 +10218,13 @@
         <v>669</v>
       </c>
       <c r="E212" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F212">
         <v>79</v>
       </c>
       <c r="G212" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H212">
         <v>75.3</v>
@@ -10256,7 +10259,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="G213" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H213" t="s">
         <v>573</v>
@@ -10285,13 +10288,13 @@
         <v>451</v>
       </c>
       <c r="E214" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F214">
         <v>93.3</v>
       </c>
       <c r="G214" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H214">
         <v>70</v>
@@ -10326,7 +10329,7 @@
         <v>67</v>
       </c>
       <c r="G215" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H215" t="s">
         <v>573</v>
@@ -10355,13 +10358,13 @@
         <v>637</v>
       </c>
       <c r="E216" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F216">
         <v>67.59999999999999</v>
       </c>
       <c r="G216" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H216">
         <v>71</v>
@@ -10396,7 +10399,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G217" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H217">
         <v>67.7</v>
@@ -10431,7 +10434,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="G218" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H218">
         <v>54.7</v>
@@ -10460,13 +10463,13 @@
         <v>674</v>
       </c>
       <c r="E219" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F219">
         <v>97.90000000000001</v>
       </c>
       <c r="G219" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H219">
         <v>71</v>
@@ -10495,13 +10498,13 @@
         <v>675</v>
       </c>
       <c r="E220" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F220">
         <v>71.5</v>
       </c>
       <c r="G220" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H220">
         <v>68</v>
@@ -10530,13 +10533,13 @@
         <v>676</v>
       </c>
       <c r="E221" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F221">
         <v>92.90000000000001</v>
       </c>
       <c r="G221" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H221">
         <v>69.3</v>
@@ -10571,7 +10574,7 @@
         <v>66.7</v>
       </c>
       <c r="G222" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H222" t="s">
         <v>573</v>
@@ -10606,7 +10609,7 @@
         <v>59.4</v>
       </c>
       <c r="G223" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H223" t="s">
         <v>573</v>
@@ -10635,13 +10638,13 @@
         <v>679</v>
       </c>
       <c r="E224" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F224">
         <v>94.7</v>
       </c>
       <c r="G224" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H224">
         <v>64.7</v>
@@ -10670,13 +10673,13 @@
         <v>680</v>
       </c>
       <c r="E225" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F225">
         <v>95.2</v>
       </c>
       <c r="G225" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H225">
         <v>69.3</v>
@@ -10711,7 +10714,7 @@
         <v>53.4</v>
       </c>
       <c r="G226" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H226" t="s">
         <v>573</v>
@@ -10740,13 +10743,13 @@
         <v>682</v>
       </c>
       <c r="E227" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F227">
         <v>46.2</v>
       </c>
       <c r="G227" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H227">
         <v>67</v>
@@ -10775,13 +10778,13 @@
         <v>683</v>
       </c>
       <c r="E228" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F228">
         <v>88.09999999999999</v>
       </c>
       <c r="G228" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H228">
         <v>57</v>
@@ -10810,13 +10813,13 @@
         <v>684</v>
       </c>
       <c r="E229" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F229">
         <v>58.1</v>
       </c>
       <c r="G229" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H229">
         <v>63.7</v>

--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="711">
   <si>
     <t>Index</t>
   </si>
@@ -2132,6 +2132,9 @@
   </si>
   <si>
     <t>S Florida</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>DIVISION 1  FBS</t>
@@ -2562,7 +2565,7 @@
         <v>82.2</v>
       </c>
       <c r="G2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H2">
         <v>0.336</v>
@@ -2597,7 +2600,7 @@
         <v>84.2</v>
       </c>
       <c r="G3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H3">
         <v>0.302</v>
@@ -2632,7 +2635,7 @@
         <v>83.90000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H4">
         <v>0.325</v>
@@ -2667,7 +2670,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H5">
         <v>0.197</v>
@@ -2702,7 +2705,7 @@
         <v>109.5</v>
       </c>
       <c r="G6" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H6">
         <v>0.455</v>
@@ -2737,7 +2740,7 @@
         <v>121.3</v>
       </c>
       <c r="G7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H7">
         <v>0.596</v>
@@ -2772,7 +2775,7 @@
         <v>91.3</v>
       </c>
       <c r="G8" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H8">
         <v>0.5649999999999999</v>
@@ -2807,7 +2810,7 @@
         <v>63.6</v>
       </c>
       <c r="G9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H9" t="s">
         <v>625</v>
@@ -2842,7 +2845,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H10">
         <v>0.54</v>
@@ -2877,7 +2880,7 @@
         <v>72.7</v>
       </c>
       <c r="G11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H11" t="s">
         <v>625</v>
@@ -2908,11 +2911,11 @@
       <c r="E12" t="s">
         <v>625</v>
       </c>
-      <c r="F12">
-        <v>56.2</v>
+      <c r="F12" t="s">
+        <v>706</v>
       </c>
       <c r="G12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H12" t="s">
         <v>625</v>
@@ -2947,7 +2950,7 @@
         <v>117.6</v>
       </c>
       <c r="G13" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H13">
         <v>0.554</v>
@@ -2982,7 +2985,7 @@
         <v>78.59999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H14">
         <v>0.314</v>
@@ -3017,7 +3020,7 @@
         <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H15">
         <v>0.328</v>
@@ -3052,7 +3055,7 @@
         <v>46.1</v>
       </c>
       <c r="G16" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H16" t="s">
         <v>625</v>
@@ -3087,7 +3090,7 @@
         <v>71.5</v>
       </c>
       <c r="G17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H17">
         <v>0.319</v>
@@ -3122,7 +3125,7 @@
         <v>64.90000000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H18" t="s">
         <v>625</v>
@@ -3157,7 +3160,7 @@
         <v>77.3</v>
       </c>
       <c r="G19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H19">
         <v>0.267</v>
@@ -3192,7 +3195,7 @@
         <v>56.3</v>
       </c>
       <c r="G20" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H20">
         <v>0.6929999999999999</v>
@@ -3227,7 +3230,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H21">
         <v>0.196</v>
@@ -3262,7 +3265,7 @@
         <v>64.3</v>
       </c>
       <c r="G22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H22">
         <v>0.304</v>
@@ -3297,7 +3300,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H23">
         <v>0.326</v>
@@ -3332,7 +3335,7 @@
         <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H24" t="s">
         <v>625</v>
@@ -3367,7 +3370,7 @@
         <v>58.1</v>
       </c>
       <c r="G25" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H25">
         <v>0.257</v>
@@ -3398,11 +3401,11 @@
       <c r="E26" t="s">
         <v>625</v>
       </c>
-      <c r="F26">
-        <v>44.2</v>
+      <c r="F26" t="s">
+        <v>706</v>
       </c>
       <c r="G26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H26" t="s">
         <v>625</v>
@@ -3437,7 +3440,7 @@
         <v>44.6</v>
       </c>
       <c r="G27" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H27">
         <v>0.516</v>
@@ -3472,7 +3475,7 @@
         <v>69.2</v>
       </c>
       <c r="G28" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H28" t="s">
         <v>625</v>
@@ -3507,7 +3510,7 @@
         <v>68.5</v>
       </c>
       <c r="G29" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H29">
         <v>0.38</v>
@@ -3542,7 +3545,7 @@
         <v>39.7</v>
       </c>
       <c r="G30" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H30" t="s">
         <v>625</v>
@@ -3577,7 +3580,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H31" t="s">
         <v>625</v>
@@ -3612,7 +3615,7 @@
         <v>105.2</v>
       </c>
       <c r="G32" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H32">
         <v>0.544</v>
@@ -3647,7 +3650,7 @@
         <v>52.8</v>
       </c>
       <c r="G33" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H33" t="s">
         <v>625</v>
@@ -3682,7 +3685,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H34" t="s">
         <v>625</v>
@@ -3717,7 +3720,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="G35" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H35" t="s">
         <v>625</v>
@@ -3748,8 +3751,8 @@
       <c r="E36" t="s">
         <v>675</v>
       </c>
-      <c r="F36">
-        <v>88.90000000000001</v>
+      <c r="F36" t="s">
+        <v>706</v>
       </c>
       <c r="G36" t="s">
         <v>706</v>
@@ -3787,7 +3790,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="G37" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H37">
         <v>0.516</v>
@@ -3822,7 +3825,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="G38" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H38">
         <v>0.35</v>
@@ -3857,7 +3860,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H39" t="s">
         <v>625</v>
@@ -3892,7 +3895,7 @@
         <v>82.3</v>
       </c>
       <c r="G40" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H40">
         <v>0.261</v>
@@ -3927,7 +3930,7 @@
         <v>46.5</v>
       </c>
       <c r="G41" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H41" t="s">
         <v>625</v>
@@ -3962,7 +3965,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H42">
         <v>0.287</v>
@@ -3997,7 +4000,7 @@
         <v>80.59999999999999</v>
       </c>
       <c r="G43" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H43">
         <v>0.15</v>
@@ -4032,7 +4035,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="G44" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H44" t="s">
         <v>625</v>
@@ -4067,7 +4070,7 @@
         <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H45" t="s">
         <v>625</v>
@@ -4102,7 +4105,7 @@
         <v>112.7</v>
       </c>
       <c r="G46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H46">
         <v>0.354</v>
@@ -4137,7 +4140,7 @@
         <v>54.6</v>
       </c>
       <c r="G47" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H47" t="s">
         <v>625</v>
@@ -4172,7 +4175,7 @@
         <v>77.2</v>
       </c>
       <c r="G48" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H48">
         <v>0.308</v>
@@ -4207,7 +4210,7 @@
         <v>101.2</v>
       </c>
       <c r="G49" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H49">
         <v>0.339</v>
@@ -4242,7 +4245,7 @@
         <v>84.7</v>
       </c>
       <c r="G50" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H50">
         <v>0.431</v>
@@ -4277,7 +4280,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G51" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H51">
         <v>0.456</v>
@@ -4312,7 +4315,7 @@
         <v>37.1</v>
       </c>
       <c r="G52" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H52" t="s">
         <v>625</v>
@@ -4347,7 +4350,7 @@
         <v>63.2</v>
       </c>
       <c r="G53" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H53" t="s">
         <v>625</v>
@@ -4382,7 +4385,7 @@
         <v>81.5</v>
       </c>
       <c r="G54" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H54">
         <v>0.339</v>
@@ -4413,8 +4416,8 @@
       <c r="E55" t="s">
         <v>64</v>
       </c>
-      <c r="F55">
-        <v>77.7</v>
+      <c r="F55" t="s">
+        <v>706</v>
       </c>
       <c r="G55" t="s">
         <v>706</v>
@@ -4452,7 +4455,7 @@
         <v>70.2</v>
       </c>
       <c r="G56" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H56">
         <v>0.231</v>
@@ -4487,7 +4490,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G57" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H57">
         <v>0.308</v>
@@ -4518,8 +4521,8 @@
       <c r="E58" t="s">
         <v>625</v>
       </c>
-      <c r="F58">
-        <v>70</v>
+      <c r="F58" t="s">
+        <v>706</v>
       </c>
       <c r="G58" t="s">
         <v>706</v>
@@ -4557,7 +4560,7 @@
         <v>60.7</v>
       </c>
       <c r="G59" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H59" t="s">
         <v>625</v>
@@ -4592,7 +4595,7 @@
         <v>90.40000000000001</v>
       </c>
       <c r="G60" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H60">
         <v>0.569</v>
@@ -4627,7 +4630,7 @@
         <v>74.2</v>
       </c>
       <c r="G61" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H61">
         <v>0.365</v>
@@ -4662,7 +4665,7 @@
         <v>65.59999999999999</v>
       </c>
       <c r="G62" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H62" t="s">
         <v>625</v>
@@ -4697,7 +4700,7 @@
         <v>60.5</v>
       </c>
       <c r="G63" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H63" t="s">
         <v>625</v>
@@ -4732,7 +4735,7 @@
         <v>74.3</v>
       </c>
       <c r="G64" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H64">
         <v>0.285</v>
@@ -4767,7 +4770,7 @@
         <v>84.09999999999999</v>
       </c>
       <c r="G65" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H65">
         <v>0.337</v>
@@ -4802,7 +4805,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G66" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H66">
         <v>0.335</v>
@@ -4837,7 +4840,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="G67" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H67">
         <v>0.381</v>
@@ -4872,7 +4875,7 @@
         <v>52.8</v>
       </c>
       <c r="G68" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H68" t="s">
         <v>625</v>
@@ -4907,7 +4910,7 @@
         <v>119.7</v>
       </c>
       <c r="G69" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H69">
         <v>0.475</v>
@@ -4942,7 +4945,7 @@
         <v>80.09999999999999</v>
       </c>
       <c r="G70" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H70">
         <v>0.626</v>
@@ -4977,7 +4980,7 @@
         <v>41.7</v>
       </c>
       <c r="G71" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H71" t="s">
         <v>625</v>
@@ -5008,11 +5011,11 @@
       <c r="E72" t="s">
         <v>625</v>
       </c>
-      <c r="F72">
-        <v>43.9</v>
+      <c r="F72" t="s">
+        <v>706</v>
       </c>
       <c r="G72" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H72" t="s">
         <v>625</v>
@@ -5047,7 +5050,7 @@
         <v>44.8</v>
       </c>
       <c r="G73" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H73" t="s">
         <v>625</v>
@@ -5082,7 +5085,7 @@
         <v>82.7</v>
       </c>
       <c r="G74" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H74">
         <v>0.434</v>
@@ -5117,7 +5120,7 @@
         <v>78.8</v>
       </c>
       <c r="G75" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H75">
         <v>0.293</v>
@@ -5152,7 +5155,7 @@
         <v>63.7</v>
       </c>
       <c r="G76" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H76" t="s">
         <v>625</v>
@@ -5183,8 +5186,8 @@
       <c r="E77" t="s">
         <v>163</v>
       </c>
-      <c r="F77">
-        <v>95.59999999999999</v>
+      <c r="F77" t="s">
+        <v>706</v>
       </c>
       <c r="G77" t="s">
         <v>706</v>
@@ -5222,7 +5225,7 @@
         <v>54</v>
       </c>
       <c r="G78" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H78" t="s">
         <v>625</v>
@@ -5257,7 +5260,7 @@
         <v>51.1</v>
       </c>
       <c r="G79" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H79" t="s">
         <v>625</v>
@@ -5292,7 +5295,7 @@
         <v>44.8</v>
       </c>
       <c r="G80" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H80" t="s">
         <v>625</v>
@@ -5327,7 +5330,7 @@
         <v>44.9</v>
       </c>
       <c r="G81" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H81" t="s">
         <v>625</v>
@@ -5362,7 +5365,7 @@
         <v>61</v>
       </c>
       <c r="G82" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H82">
         <v>0.179</v>
@@ -5393,8 +5396,8 @@
       <c r="E83" t="s">
         <v>625</v>
       </c>
-      <c r="F83">
-        <v>79.40000000000001</v>
+      <c r="F83" t="s">
+        <v>706</v>
       </c>
       <c r="G83" t="s">
         <v>706</v>
@@ -5432,7 +5435,7 @@
         <v>84.40000000000001</v>
       </c>
       <c r="G84" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H84">
         <v>0.425</v>
@@ -5467,7 +5470,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="G85" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H85">
         <v>0.439</v>
@@ -5502,7 +5505,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="G86" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H86">
         <v>0.535</v>
@@ -5537,7 +5540,7 @@
         <v>99.8</v>
       </c>
       <c r="G87" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H87">
         <v>0.192</v>
@@ -5572,7 +5575,7 @@
         <v>92.90000000000001</v>
       </c>
       <c r="G88" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H88">
         <v>0.394</v>
@@ -5607,7 +5610,7 @@
         <v>107.2</v>
       </c>
       <c r="G89" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H89">
         <v>0.46</v>
@@ -5642,7 +5645,7 @@
         <v>46.7</v>
       </c>
       <c r="G90" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H90" t="s">
         <v>625</v>
@@ -5677,7 +5680,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G91" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H91">
         <v>0.067</v>
@@ -5712,7 +5715,7 @@
         <v>68.8</v>
       </c>
       <c r="G92" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H92" t="s">
         <v>625</v>
@@ -5747,7 +5750,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="G93" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H93">
         <v>0.333</v>
@@ -5782,7 +5785,7 @@
         <v>69.8</v>
       </c>
       <c r="G94" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H94" t="s">
         <v>625</v>
@@ -5817,7 +5820,7 @@
         <v>80.2</v>
       </c>
       <c r="G95" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H95">
         <v>0.265</v>
@@ -5852,7 +5855,7 @@
         <v>68.7</v>
       </c>
       <c r="G96" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H96" t="s">
         <v>625</v>
@@ -5887,7 +5890,7 @@
         <v>112.4</v>
       </c>
       <c r="G97" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H97">
         <v>0.573</v>
@@ -5922,7 +5925,7 @@
         <v>49.1</v>
       </c>
       <c r="G98" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H98" t="s">
         <v>625</v>
@@ -5957,7 +5960,7 @@
         <v>62.5</v>
       </c>
       <c r="G99" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H99" t="s">
         <v>625</v>
@@ -5992,7 +5995,7 @@
         <v>70.2</v>
       </c>
       <c r="G100" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H100" t="s">
         <v>625</v>
@@ -6027,7 +6030,7 @@
         <v>96.09999999999999</v>
       </c>
       <c r="G101" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H101">
         <v>0.553</v>
@@ -6062,7 +6065,7 @@
         <v>40.7</v>
       </c>
       <c r="G102" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H102" t="s">
         <v>625</v>
@@ -6097,7 +6100,7 @@
         <v>82.2</v>
       </c>
       <c r="G103" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H103">
         <v>0.478</v>
@@ -6132,7 +6135,7 @@
         <v>75</v>
       </c>
       <c r="G104" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H104">
         <v>0.44</v>
@@ -6167,7 +6170,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="G105" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H105" t="s">
         <v>625</v>
@@ -6202,7 +6205,7 @@
         <v>34.3</v>
       </c>
       <c r="G106" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H106" t="s">
         <v>625</v>
@@ -6233,11 +6236,11 @@
       <c r="E107" t="s">
         <v>625</v>
       </c>
-      <c r="F107">
-        <v>28</v>
+      <c r="F107" t="s">
+        <v>706</v>
       </c>
       <c r="G107" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H107" t="s">
         <v>625</v>
@@ -6272,7 +6275,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="G108" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H108">
         <v>0.351</v>
@@ -6307,7 +6310,7 @@
         <v>94.59999999999999</v>
       </c>
       <c r="G109" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H109">
         <v>0.345</v>
@@ -6342,7 +6345,7 @@
         <v>32.5</v>
       </c>
       <c r="G110" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H110">
         <v>0.34</v>
@@ -6377,7 +6380,7 @@
         <v>93</v>
       </c>
       <c r="G111" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H111">
         <v>0.245</v>
@@ -6412,7 +6415,7 @@
         <v>52.5</v>
       </c>
       <c r="G112" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H112" t="s">
         <v>625</v>
@@ -6447,7 +6450,7 @@
         <v>94.7</v>
       </c>
       <c r="G113" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H113">
         <v>0.394</v>
@@ -6482,7 +6485,7 @@
         <v>80.5</v>
       </c>
       <c r="G114" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H114">
         <v>0.366</v>
@@ -6517,7 +6520,7 @@
         <v>56.7</v>
       </c>
       <c r="G115" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H115" t="s">
         <v>625</v>
@@ -6552,7 +6555,7 @@
         <v>66.7</v>
       </c>
       <c r="G116" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H116" t="s">
         <v>625</v>
@@ -6587,7 +6590,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G117" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H117" t="s">
         <v>625</v>
@@ -6622,7 +6625,7 @@
         <v>47.5</v>
       </c>
       <c r="G118" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H118" t="s">
         <v>625</v>
@@ -6657,7 +6660,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G119" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H119">
         <v>0.35</v>
@@ -6692,7 +6695,7 @@
         <v>103.6</v>
       </c>
       <c r="G120" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H120">
         <v>0.431</v>
@@ -6727,7 +6730,7 @@
         <v>51.2</v>
       </c>
       <c r="G121" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H121" t="s">
         <v>625</v>
@@ -6762,7 +6765,7 @@
         <v>35.6</v>
       </c>
       <c r="G122" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H122" t="s">
         <v>625</v>
@@ -6797,7 +6800,7 @@
         <v>101.8</v>
       </c>
       <c r="G123" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H123">
         <v>0.327</v>
@@ -6832,7 +6835,7 @@
         <v>93.3</v>
       </c>
       <c r="G124" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H124">
         <v>0.352</v>
@@ -6867,7 +6870,7 @@
         <v>64.40000000000001</v>
       </c>
       <c r="G125" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H125">
         <v>0.315</v>
@@ -6902,7 +6905,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G126" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H126">
         <v>0.44</v>
@@ -6937,7 +6940,7 @@
         <v>109</v>
       </c>
       <c r="G127" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H127">
         <v>0.357</v>
@@ -6972,7 +6975,7 @@
         <v>64.8</v>
       </c>
       <c r="G128" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H128" t="s">
         <v>625</v>
@@ -7007,7 +7010,7 @@
         <v>93.5</v>
       </c>
       <c r="G129" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H129">
         <v>0.508</v>
@@ -7042,7 +7045,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="G130" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H130" t="s">
         <v>625</v>
@@ -7077,7 +7080,7 @@
         <v>44.6</v>
       </c>
       <c r="G131" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H131" t="s">
         <v>625</v>
@@ -7112,7 +7115,7 @@
         <v>-18.2</v>
       </c>
       <c r="G132" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H132" t="s">
         <v>625</v>
@@ -7147,7 +7150,7 @@
         <v>72.5</v>
       </c>
       <c r="G133" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H133" t="s">
         <v>625</v>
@@ -7182,7 +7185,7 @@
         <v>94.3</v>
       </c>
       <c r="G134" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H134">
         <v>0.386</v>
@@ -7217,7 +7220,7 @@
         <v>70.3</v>
       </c>
       <c r="G135" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H135" t="s">
         <v>625</v>
@@ -7252,7 +7255,7 @@
         <v>81.59999999999999</v>
       </c>
       <c r="G136" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H136">
         <v>0.751</v>
@@ -7287,7 +7290,7 @@
         <v>89.3</v>
       </c>
       <c r="G137" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H137">
         <v>0.338</v>
@@ -7322,7 +7325,7 @@
         <v>89.90000000000001</v>
       </c>
       <c r="G138" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H138">
         <v>0.302</v>
@@ -7357,7 +7360,7 @@
         <v>111.3</v>
       </c>
       <c r="G139" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H139">
         <v>0.72</v>
@@ -7392,7 +7395,7 @@
         <v>46.2</v>
       </c>
       <c r="G140" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H140" t="s">
         <v>625</v>
@@ -7427,7 +7430,7 @@
         <v>63.9</v>
       </c>
       <c r="G141" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H141">
         <v>0.206</v>
@@ -7462,7 +7465,7 @@
         <v>50.7</v>
       </c>
       <c r="G142" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H142" t="s">
         <v>625</v>
@@ -7497,7 +7500,7 @@
         <v>38.9</v>
       </c>
       <c r="G143" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H143" t="s">
         <v>625</v>
@@ -7532,7 +7535,7 @@
         <v>88.09999999999999</v>
       </c>
       <c r="G144" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H144">
         <v>0.374</v>
@@ -7567,7 +7570,7 @@
         <v>72</v>
       </c>
       <c r="G145" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H145" t="s">
         <v>625</v>
@@ -7602,7 +7605,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G146" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H146">
         <v>0.285</v>
@@ -7637,7 +7640,7 @@
         <v>45.2</v>
       </c>
       <c r="G147" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H147" t="s">
         <v>625</v>
@@ -7672,7 +7675,7 @@
         <v>75.40000000000001</v>
       </c>
       <c r="G148" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H148">
         <v>0.25</v>
@@ -7707,7 +7710,7 @@
         <v>66.3</v>
       </c>
       <c r="G149" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H149" t="s">
         <v>625</v>
@@ -7742,7 +7745,7 @@
         <v>52.4</v>
       </c>
       <c r="G150" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H150" t="s">
         <v>625</v>
@@ -7777,7 +7780,7 @@
         <v>59.4</v>
       </c>
       <c r="G151" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H151" t="s">
         <v>625</v>
@@ -7812,7 +7815,7 @@
         <v>65.5</v>
       </c>
       <c r="G152" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H152" t="s">
         <v>625</v>
@@ -7847,7 +7850,7 @@
         <v>95.2</v>
       </c>
       <c r="G153" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H153">
         <v>0.481</v>
@@ -7882,7 +7885,7 @@
         <v>79</v>
       </c>
       <c r="G154" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H154">
         <v>0.586</v>
@@ -7917,7 +7920,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="G155" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H155">
         <v>0.41</v>
@@ -7952,7 +7955,7 @@
         <v>53.4</v>
       </c>
       <c r="G156" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H156" t="s">
         <v>625</v>
@@ -7987,7 +7990,7 @@
         <v>92.5</v>
       </c>
       <c r="G157" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H157">
         <v>0.312</v>
@@ -8022,7 +8025,7 @@
         <v>56.2</v>
       </c>
       <c r="G158" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H158" t="s">
         <v>625</v>
@@ -8057,7 +8060,7 @@
         <v>88.59999999999999</v>
       </c>
       <c r="G159" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H159">
         <v>0.427</v>
@@ -8088,11 +8091,11 @@
       <c r="E160" t="s">
         <v>238</v>
       </c>
-      <c r="F160">
-        <v>59.7</v>
+      <c r="F160" t="s">
+        <v>706</v>
       </c>
       <c r="G160" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H160">
         <v>0.372</v>
@@ -8127,7 +8130,7 @@
         <v>83.3</v>
       </c>
       <c r="G161" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H161">
         <v>0.411</v>
@@ -8162,7 +8165,7 @@
         <v>62.1</v>
       </c>
       <c r="G162" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H162">
         <v>0.318</v>
@@ -8197,7 +8200,7 @@
         <v>99.5</v>
       </c>
       <c r="G163" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H163" t="s">
         <v>625</v>
@@ -8232,7 +8235,7 @@
         <v>41.9</v>
       </c>
       <c r="G164" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H164" t="s">
         <v>625</v>
@@ -8267,7 +8270,7 @@
         <v>64.5</v>
       </c>
       <c r="G165" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H165" t="s">
         <v>625</v>
@@ -8302,7 +8305,7 @@
         <v>46.2</v>
       </c>
       <c r="G166" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H166">
         <v>0.353</v>
@@ -8337,7 +8340,7 @@
         <v>80.3</v>
       </c>
       <c r="G167" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H167" t="s">
         <v>625</v>
@@ -8372,7 +8375,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="G168" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H168" t="s">
         <v>625</v>
@@ -8407,7 +8410,7 @@
         <v>93.09999999999999</v>
       </c>
       <c r="G169" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H169">
         <v>0.409</v>
@@ -8442,7 +8445,7 @@
         <v>26.2</v>
       </c>
       <c r="G170" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H170" t="s">
         <v>625</v>
@@ -8477,7 +8480,7 @@
         <v>68.5</v>
       </c>
       <c r="G171" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H171">
         <v>0.444</v>
@@ -8512,7 +8515,7 @@
         <v>51.8</v>
       </c>
       <c r="G172" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H172" t="s">
         <v>625</v>
@@ -8547,7 +8550,7 @@
         <v>83</v>
       </c>
       <c r="G173" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H173">
         <v>0.275</v>
@@ -8582,7 +8585,7 @@
         <v>100.6</v>
       </c>
       <c r="G174" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H174">
         <v>0.702</v>
@@ -8617,7 +8620,7 @@
         <v>57.7</v>
       </c>
       <c r="G175" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H175">
         <v>0.491</v>
@@ -8652,7 +8655,7 @@
         <v>25.5</v>
       </c>
       <c r="G176" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H176">
         <v>0.325</v>
@@ -8687,7 +8690,7 @@
         <v>77.90000000000001</v>
       </c>
       <c r="G177" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H177">
         <v>0.437</v>
@@ -8722,7 +8725,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G178" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H178">
         <v>0.225</v>
@@ -8757,7 +8760,7 @@
         <v>52.6</v>
       </c>
       <c r="G179" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H179" t="s">
         <v>625</v>
@@ -8792,7 +8795,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="G180" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H180" t="s">
         <v>625</v>
@@ -8827,7 +8830,7 @@
         <v>89.5</v>
       </c>
       <c r="G181" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H181">
         <v>0.483</v>
@@ -8858,8 +8861,8 @@
       <c r="E182" t="s">
         <v>191</v>
       </c>
-      <c r="F182">
-        <v>69.5</v>
+      <c r="F182" t="s">
+        <v>706</v>
       </c>
       <c r="G182" t="s">
         <v>706</v>
@@ -8932,7 +8935,7 @@
         <v>88.2</v>
       </c>
       <c r="G184" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H184">
         <v>0.414</v>
@@ -8967,7 +8970,7 @@
         <v>99.5</v>
       </c>
       <c r="G185" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H185">
         <v>0.495</v>
@@ -9002,7 +9005,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="G186" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H186" t="s">
         <v>625</v>
@@ -9037,7 +9040,7 @@
         <v>90.2</v>
       </c>
       <c r="G187" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H187">
         <v>0.407</v>
@@ -9072,7 +9075,7 @@
         <v>87.59999999999999</v>
       </c>
       <c r="G188" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H188">
         <v>0.49</v>
@@ -9107,7 +9110,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G189" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H189">
         <v>0.166</v>
@@ -9142,7 +9145,7 @@
         <v>-6.2</v>
       </c>
       <c r="G190" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H190" t="s">
         <v>625</v>
@@ -9177,7 +9180,7 @@
         <v>55.1</v>
       </c>
       <c r="G191" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H191" t="s">
         <v>625</v>
@@ -9212,7 +9215,7 @@
         <v>49.9</v>
       </c>
       <c r="G192" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H192" t="s">
         <v>625</v>
@@ -9247,7 +9250,7 @@
         <v>98.3</v>
       </c>
       <c r="G193" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H193" t="s">
         <v>625</v>
@@ -9282,7 +9285,7 @@
         <v>38.4</v>
       </c>
       <c r="G194" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H194" t="s">
         <v>625</v>
@@ -9317,7 +9320,7 @@
         <v>114</v>
       </c>
       <c r="G195" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H195">
         <v>0.719</v>
@@ -9352,7 +9355,7 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G196" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H196">
         <v>0.358</v>
@@ -9387,7 +9390,7 @@
         <v>51</v>
       </c>
       <c r="G197" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H197" t="s">
         <v>625</v>
@@ -9422,7 +9425,7 @@
         <v>85</v>
       </c>
       <c r="G198" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H198" t="s">
         <v>625</v>
@@ -9457,7 +9460,7 @@
         <v>109</v>
       </c>
       <c r="G199" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H199">
         <v>0.492</v>
@@ -9488,8 +9491,8 @@
       <c r="E200" t="s">
         <v>209</v>
       </c>
-      <c r="F200">
-        <v>76</v>
+      <c r="F200" t="s">
+        <v>706</v>
       </c>
       <c r="G200" t="s">
         <v>706</v>
@@ -9527,7 +9530,7 @@
         <v>14.8</v>
       </c>
       <c r="G201" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H201" t="s">
         <v>625</v>
@@ -9562,7 +9565,7 @@
         <v>64</v>
       </c>
       <c r="G202" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H202" t="s">
         <v>625</v>
@@ -9597,7 +9600,7 @@
         <v>59</v>
       </c>
       <c r="G203" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H203">
         <v>0.255</v>
@@ -9632,7 +9635,7 @@
         <v>77.59999999999999</v>
       </c>
       <c r="G204" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H204" t="s">
         <v>625</v>
@@ -9667,7 +9670,7 @@
         <v>79.40000000000001</v>
       </c>
       <c r="G205" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H205" t="s">
         <v>625</v>
@@ -9702,7 +9705,7 @@
         <v>111.7</v>
       </c>
       <c r="G206" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H206">
         <v>0.34</v>
@@ -9737,7 +9740,7 @@
         <v>83.7</v>
       </c>
       <c r="G207" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H207">
         <v>0.353</v>
@@ -9772,7 +9775,7 @@
         <v>82.5</v>
       </c>
       <c r="G208" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H208">
         <v>0.314</v>
@@ -9807,7 +9810,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="G209" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H209">
         <v>0.172</v>
@@ -9842,7 +9845,7 @@
         <v>72.40000000000001</v>
       </c>
       <c r="G210" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H210">
         <v>0.4</v>
@@ -9877,7 +9880,7 @@
         <v>76.40000000000001</v>
       </c>
       <c r="G211" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H211">
         <v>0.255</v>
@@ -9912,7 +9915,7 @@
         <v>96.59999999999999</v>
       </c>
       <c r="G212" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H212">
         <v>0.235</v>
@@ -9947,7 +9950,7 @@
         <v>95.09999999999999</v>
       </c>
       <c r="G213" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H213">
         <v>0.53</v>
@@ -9982,7 +9985,7 @@
         <v>64.3</v>
       </c>
       <c r="G214" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H214">
         <v>0.236</v>
@@ -10017,7 +10020,7 @@
         <v>50.1</v>
       </c>
       <c r="G215" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H215" t="s">
         <v>625</v>
@@ -10052,7 +10055,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="G216" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H216">
         <v>0.397</v>
@@ -10087,7 +10090,7 @@
         <v>106.7</v>
       </c>
       <c r="G217" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H217">
         <v>0.4</v>
@@ -10122,7 +10125,7 @@
         <v>57.2</v>
       </c>
       <c r="G218" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H218" t="s">
         <v>625</v>
@@ -10157,7 +10160,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="G219" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H219">
         <v>0.373</v>
@@ -10192,7 +10195,7 @@
         <v>94.7</v>
       </c>
       <c r="G220" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H220">
         <v>0.485</v>
@@ -10227,7 +10230,7 @@
         <v>96.3</v>
       </c>
       <c r="G221" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H221">
         <v>0.481</v>
@@ -10262,7 +10265,7 @@
         <v>54.6</v>
       </c>
       <c r="G222" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H222" t="s">
         <v>625</v>
@@ -10297,7 +10300,7 @@
         <v>67.59999999999999</v>
       </c>
       <c r="G223" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H223">
         <v>0.188</v>
@@ -10332,7 +10335,7 @@
         <v>30.2</v>
       </c>
       <c r="G224" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H224" t="s">
         <v>625</v>
@@ -10367,7 +10370,7 @@
         <v>83.8</v>
       </c>
       <c r="G225" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H225">
         <v>0.335</v>
@@ -10402,7 +10405,7 @@
         <v>70.40000000000001</v>
       </c>
       <c r="G226" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H226">
         <v>0.211</v>
@@ -10437,7 +10440,7 @@
         <v>67.8</v>
       </c>
       <c r="G227" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H227">
         <v>0.404</v>
@@ -10472,7 +10475,7 @@
         <v>85.8</v>
       </c>
       <c r="G228" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H228">
         <v>0.458</v>
@@ -10507,7 +10510,7 @@
         <v>93.59999999999999</v>
       </c>
       <c r="G229" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H229">
         <v>0.502</v>

--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="710">
   <si>
     <t>Index</t>
   </si>
@@ -2020,117 +2020,117 @@
     <t>COLGATE</t>
   </si>
   <si>
+    <t>Penn St</t>
+  </si>
+  <si>
+    <t>Wash State</t>
+  </si>
+  <si>
+    <t>Bowling Grn</t>
+  </si>
+  <si>
+    <t>GA Tech</t>
+  </si>
+  <si>
+    <t>James Mad</t>
+  </si>
+  <si>
+    <t>Central Mich</t>
+  </si>
+  <si>
+    <t>Middle Tenn</t>
+  </si>
+  <si>
+    <t>S Carolina</t>
+  </si>
+  <si>
+    <t>Kent St</t>
+  </si>
+  <si>
+    <t>Fla Atlantic</t>
+  </si>
+  <si>
+    <t>TX Christian</t>
+  </si>
+  <si>
+    <t>Ohio St</t>
+  </si>
+  <si>
+    <t>S Mississippi</t>
+  </si>
+  <si>
+    <t>Miami (OH)</t>
+  </si>
+  <si>
+    <t>Boston Col</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Penn St</t>
-  </si>
-  <si>
-    <t>TX Christian</t>
-  </si>
-  <si>
-    <t>Wash State</t>
-  </si>
-  <si>
-    <t>Bowling Grn</t>
+    <t>E Carolina</t>
+  </si>
+  <si>
+    <t>VA Tech</t>
+  </si>
+  <si>
+    <t>N Carolina</t>
+  </si>
+  <si>
+    <t>Iowa St</t>
+  </si>
+  <si>
+    <t>App State</t>
+  </si>
+  <si>
+    <t>S Florida</t>
   </si>
   <si>
     <t>Miss State</t>
   </si>
   <si>
-    <t>GA Tech</t>
-  </si>
-  <si>
-    <t>James Mad</t>
-  </si>
-  <si>
-    <t>Central Mich</t>
-  </si>
-  <si>
-    <t>Middle Tenn</t>
-  </si>
-  <si>
-    <t>S Carolina</t>
-  </si>
-  <si>
-    <t>Kent St</t>
-  </si>
-  <si>
-    <t>Fla Atlantic</t>
-  </si>
-  <si>
-    <t>Ohio St</t>
-  </si>
-  <si>
-    <t>S Mississippi</t>
-  </si>
-  <si>
-    <t>Miami (OH)</t>
-  </si>
-  <si>
-    <t>Boston Col</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>E Carolina</t>
+    <t>Utah St</t>
+  </si>
+  <si>
+    <t>W Kentucky</t>
+  </si>
+  <si>
+    <t>LA Tech</t>
+  </si>
+  <si>
+    <t>U Mass</t>
+  </si>
+  <si>
+    <t>N Mex State</t>
+  </si>
+  <si>
+    <t>S Methodist</t>
+  </si>
+  <si>
+    <t>S Alabama</t>
+  </si>
+  <si>
+    <t>Ball St</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>TX El Paso</t>
+  </si>
+  <si>
+    <t>W Virginia</t>
+  </si>
+  <si>
+    <t>Jksnville St</t>
   </si>
   <si>
     <t>Sam Hous St</t>
   </si>
   <si>
-    <t>VA Tech</t>
-  </si>
-  <si>
-    <t>N Carolina</t>
-  </si>
-  <si>
-    <t>Iowa St</t>
-  </si>
-  <si>
-    <t>App State</t>
-  </si>
-  <si>
-    <t>S Florida</t>
-  </si>
-  <si>
-    <t>Utah St</t>
-  </si>
-  <si>
-    <t>W Kentucky</t>
-  </si>
-  <si>
-    <t>LA Tech</t>
-  </si>
-  <si>
-    <t>U Mass</t>
-  </si>
-  <si>
-    <t>N Mex State</t>
-  </si>
-  <si>
-    <t>S Methodist</t>
-  </si>
-  <si>
-    <t>S Alabama</t>
-  </si>
-  <si>
-    <t>TX El Paso</t>
-  </si>
-  <si>
-    <t>Ball St</t>
-  </si>
-  <si>
-    <t>Pittsburgh</t>
-  </si>
-  <si>
-    <t>W Virginia</t>
-  </si>
-  <si>
-    <t>Jksnville St</t>
-  </si>
-  <si>
     <t>Florida Intl</t>
   </si>
   <si>
@@ -2144,9 +2144,6 @@
   </si>
   <si>
     <t>DIVISION 2</t>
-  </si>
-  <si>
-    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2556,7 @@
         <v>451</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>582</v>
       </c>
       <c r="F2">
         <v>32.5</v>
@@ -2567,17 +2564,17 @@
       <c r="G2" t="s">
         <v>706</v>
       </c>
-      <c r="H2">
-        <v>0.188</v>
-      </c>
-      <c r="I2">
-        <v>40.3</v>
-      </c>
-      <c r="J2">
-        <v>71</v>
-      </c>
-      <c r="K2">
-        <v>0.654</v>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2664,7 +2661,7 @@
         <v>454</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>582</v>
       </c>
       <c r="F5">
         <v>57.7</v>
@@ -2672,17 +2669,17 @@
       <c r="G5" t="s">
         <v>706</v>
       </c>
-      <c r="H5">
-        <v>0.491</v>
-      </c>
-      <c r="I5">
-        <v>35</v>
-      </c>
-      <c r="J5">
-        <v>70.7</v>
-      </c>
-      <c r="K5">
-        <v>0.479</v>
+      <c r="H5" t="s">
+        <v>582</v>
+      </c>
+      <c r="I5" t="s">
+        <v>582</v>
+      </c>
+      <c r="J5" t="s">
+        <v>582</v>
+      </c>
+      <c r="K5" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2769,7 +2766,7 @@
         <v>457</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>582</v>
       </c>
       <c r="F8">
         <v>38.9</v>
@@ -2778,16 +2775,16 @@
         <v>706</v>
       </c>
       <c r="H8" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="I8" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="J8" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
       <c r="K8" t="s">
-        <v>710</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3049,7 +3046,7 @@
         <v>465</v>
       </c>
       <c r="E16" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F16">
         <v>109</v>
@@ -3644,7 +3641,7 @@
         <v>481</v>
       </c>
       <c r="E33" t="s">
-        <v>670</v>
+        <v>582</v>
       </c>
       <c r="F33">
         <v>64.09999999999999</v>
@@ -3652,17 +3649,17 @@
       <c r="G33" t="s">
         <v>706</v>
       </c>
-      <c r="H33">
-        <v>0.516</v>
-      </c>
-      <c r="I33">
-        <v>38.3</v>
-      </c>
-      <c r="J33">
-        <v>73</v>
-      </c>
-      <c r="K33">
-        <v>0.507</v>
+      <c r="H33" t="s">
+        <v>582</v>
+      </c>
+      <c r="I33" t="s">
+        <v>582</v>
+      </c>
+      <c r="J33" t="s">
+        <v>582</v>
+      </c>
+      <c r="K33" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4099,7 +4096,7 @@
         <v>494</v>
       </c>
       <c r="E46" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F46">
         <v>107.2</v>
@@ -4134,7 +4131,7 @@
         <v>495</v>
       </c>
       <c r="E47" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F47">
         <v>82.7</v>
@@ -4204,7 +4201,7 @@
         <v>497</v>
       </c>
       <c r="E49" t="s">
-        <v>673</v>
+        <v>582</v>
       </c>
       <c r="F49">
         <v>74</v>
@@ -4212,17 +4209,17 @@
       <c r="G49" t="s">
         <v>706</v>
       </c>
-      <c r="H49">
-        <v>0.287</v>
-      </c>
-      <c r="I49">
-        <v>29.3</v>
-      </c>
-      <c r="J49">
-        <v>67.3</v>
-      </c>
-      <c r="K49">
-        <v>0.421</v>
+      <c r="H49" t="s">
+        <v>582</v>
+      </c>
+      <c r="I49" t="s">
+        <v>582</v>
+      </c>
+      <c r="J49" t="s">
+        <v>582</v>
+      </c>
+      <c r="K49" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4344,7 +4341,7 @@
         <v>500</v>
       </c>
       <c r="E53" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F53">
         <v>93.59999999999999</v>
@@ -4379,7 +4376,7 @@
         <v>501</v>
       </c>
       <c r="E54" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F54">
         <v>95.2</v>
@@ -4554,7 +4551,7 @@
         <v>506</v>
       </c>
       <c r="E59" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F59">
         <v>92.5</v>
@@ -4589,7 +4586,7 @@
         <v>507</v>
       </c>
       <c r="E60" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F60">
         <v>72.40000000000001</v>
@@ -4799,7 +4796,7 @@
         <v>513</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>582</v>
       </c>
       <c r="F66">
         <v>41.9</v>
@@ -4807,17 +4804,17 @@
       <c r="G66" t="s">
         <v>706</v>
       </c>
-      <c r="H66">
-        <v>0.437</v>
-      </c>
-      <c r="I66">
-        <v>25.3</v>
-      </c>
-      <c r="J66">
-        <v>71</v>
-      </c>
-      <c r="K66">
-        <v>0.425</v>
+      <c r="H66" t="s">
+        <v>582</v>
+      </c>
+      <c r="I66" t="s">
+        <v>582</v>
+      </c>
+      <c r="J66" t="s">
+        <v>582</v>
+      </c>
+      <c r="K66" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4904,7 +4901,7 @@
         <v>516</v>
       </c>
       <c r="E69" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F69">
         <v>94.7</v>
@@ -5009,7 +5006,7 @@
         <v>519</v>
       </c>
       <c r="E72" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F72">
         <v>58.1</v>
@@ -5464,7 +5461,7 @@
         <v>532</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>582</v>
       </c>
       <c r="F85">
         <v>59.7</v>
@@ -5472,17 +5469,17 @@
       <c r="G85" t="s">
         <v>706</v>
       </c>
-      <c r="H85">
-        <v>0.372</v>
-      </c>
-      <c r="I85">
-        <v>36.3</v>
-      </c>
-      <c r="J85">
-        <v>72.7</v>
-      </c>
-      <c r="K85">
-        <v>0.571</v>
+      <c r="H85" t="s">
+        <v>582</v>
+      </c>
+      <c r="I85" t="s">
+        <v>582</v>
+      </c>
+      <c r="J85" t="s">
+        <v>582</v>
+      </c>
+      <c r="K85" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5534,7 +5531,7 @@
         <v>534</v>
       </c>
       <c r="E87" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F87">
         <v>77</v>
@@ -5569,7 +5566,7 @@
         <v>535</v>
       </c>
       <c r="E88" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="F88">
         <v>93.90000000000001</v>
@@ -5639,7 +5636,7 @@
         <v>537</v>
       </c>
       <c r="E90" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F90">
         <v>111.7</v>
@@ -5674,7 +5671,7 @@
         <v>538</v>
       </c>
       <c r="E91" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F91">
         <v>70</v>
@@ -5709,7 +5706,7 @@
         <v>539</v>
       </c>
       <c r="E92" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F92">
         <v>84.2</v>
@@ -5744,7 +5741,7 @@
         <v>540</v>
       </c>
       <c r="E93" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F93">
         <v>82.5</v>
@@ -6024,7 +6021,7 @@
         <v>548</v>
       </c>
       <c r="E101" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F101">
         <v>101.8</v>
@@ -6339,7 +6336,7 @@
         <v>555</v>
       </c>
       <c r="E110" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="F110">
         <v>67.59999999999999</v>
@@ -6444,7 +6441,7 @@
         <v>558</v>
       </c>
       <c r="E113" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F113">
         <v>76.40000000000001</v>
@@ -6794,7 +6791,7 @@
         <v>568</v>
       </c>
       <c r="E123" t="s">
-        <v>687</v>
+        <v>582</v>
       </c>
       <c r="F123">
         <v>67.8</v>
@@ -6802,17 +6799,17 @@
       <c r="G123" t="s">
         <v>706</v>
       </c>
-      <c r="H123">
-        <v>0.404</v>
-      </c>
-      <c r="I123">
-        <v>25</v>
-      </c>
-      <c r="J123">
-        <v>72.7</v>
-      </c>
-      <c r="K123">
-        <v>0.35</v>
+      <c r="H123" t="s">
+        <v>582</v>
+      </c>
+      <c r="I123" t="s">
+        <v>582</v>
+      </c>
+      <c r="J123" t="s">
+        <v>582</v>
+      </c>
+      <c r="K123" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -6934,7 +6931,7 @@
         <v>572</v>
       </c>
       <c r="E127" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F127">
         <v>98.3</v>
@@ -6969,7 +6966,7 @@
         <v>573</v>
       </c>
       <c r="E128" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F128">
         <v>88.90000000000001</v>
@@ -7319,7 +7316,7 @@
         <v>583</v>
       </c>
       <c r="E138" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F138">
         <v>96.09999999999999</v>
@@ -7984,7 +7981,7 @@
         <v>600</v>
       </c>
       <c r="E157" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F157">
         <v>86</v>
@@ -8089,7 +8086,7 @@
         <v>603</v>
       </c>
       <c r="E160" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F160">
         <v>85</v>
@@ -8229,7 +8226,7 @@
         <v>606</v>
       </c>
       <c r="E164" t="s">
-        <v>688</v>
+        <v>582</v>
       </c>
       <c r="F164">
         <v>56.3</v>
@@ -8237,17 +8234,17 @@
       <c r="G164" t="s">
         <v>706</v>
       </c>
-      <c r="H164">
-        <v>0.6929999999999999</v>
-      </c>
-      <c r="I164">
-        <v>24</v>
-      </c>
-      <c r="J164">
-        <v>59.7</v>
-      </c>
-      <c r="K164">
-        <v>0.34</v>
+      <c r="H164" t="s">
+        <v>582</v>
+      </c>
+      <c r="I164" t="s">
+        <v>582</v>
+      </c>
+      <c r="J164" t="s">
+        <v>582</v>
+      </c>
+      <c r="K164" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -8369,7 +8366,7 @@
         <v>610</v>
       </c>
       <c r="E168" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="F168">
         <v>83.59999999999999</v>
@@ -8684,7 +8681,7 @@
         <v>619</v>
       </c>
       <c r="E177" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F177">
         <v>70.59999999999999</v>
@@ -8929,7 +8926,7 @@
         <v>625</v>
       </c>
       <c r="E184" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F184">
         <v>75</v>
@@ -8964,7 +8961,7 @@
         <v>509</v>
       </c>
       <c r="E185" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F185">
         <v>109</v>
@@ -9034,7 +9031,7 @@
         <v>627</v>
       </c>
       <c r="E187" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F187">
         <v>60.7</v>
@@ -9069,7 +9066,7 @@
         <v>628</v>
       </c>
       <c r="E188" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F188">
         <v>77.2</v>
@@ -9209,7 +9206,7 @@
         <v>632</v>
       </c>
       <c r="E192" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F192">
         <v>93.90000000000001</v>
@@ -9279,7 +9276,7 @@
         <v>634</v>
       </c>
       <c r="E194" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F194">
         <v>91.3</v>
@@ -9454,7 +9451,7 @@
         <v>639</v>
       </c>
       <c r="E199" t="s">
-        <v>700</v>
+        <v>582</v>
       </c>
       <c r="F199">
         <v>46.2</v>
@@ -9462,17 +9459,17 @@
       <c r="G199" t="s">
         <v>706</v>
       </c>
-      <c r="H199">
-        <v>0.353</v>
-      </c>
-      <c r="I199">
-        <v>32.3</v>
-      </c>
-      <c r="J199">
-        <v>67</v>
-      </c>
-      <c r="K199">
-        <v>0.483</v>
+      <c r="H199" t="s">
+        <v>582</v>
+      </c>
+      <c r="I199" t="s">
+        <v>582</v>
+      </c>
+      <c r="J199" t="s">
+        <v>582</v>
+      </c>
+      <c r="K199" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -9559,7 +9556,7 @@
         <v>642</v>
       </c>
       <c r="E202" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F202">
         <v>77.90000000000001</v>
@@ -9699,7 +9696,7 @@
         <v>646</v>
       </c>
       <c r="E206" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F206">
         <v>81</v>
@@ -9769,7 +9766,7 @@
         <v>648</v>
       </c>
       <c r="E208" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F208">
         <v>68.8</v>
@@ -9804,7 +9801,7 @@
         <v>649</v>
       </c>
       <c r="E209" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F209">
         <v>95.59999999999999</v>
@@ -9909,7 +9906,7 @@
         <v>652</v>
       </c>
       <c r="E212" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F212">
         <v>84.7</v>
@@ -10154,7 +10151,7 @@
         <v>482</v>
       </c>
       <c r="E219" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="F219">
         <v>68.5</v>

--- a/data/stats.xlsx
+++ b/data/stats.xlsx
@@ -2600,13 +2600,13 @@
         <v>707</v>
       </c>
       <c r="H3">
+        <v>68.7</v>
+      </c>
+      <c r="I3">
         <v>0.374</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>26.3</v>
-      </c>
-      <c r="J3">
-        <v>68.7</v>
       </c>
       <c r="K3">
         <v>0.449</v>
@@ -2740,13 +2740,13 @@
         <v>707</v>
       </c>
       <c r="H7">
+        <v>69.7</v>
+      </c>
+      <c r="I7">
         <v>0.325</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>38.7</v>
-      </c>
-      <c r="J7">
-        <v>69.7</v>
       </c>
       <c r="K7">
         <v>0.571</v>
@@ -2810,13 +2810,13 @@
         <v>707</v>
       </c>
       <c r="H9">
+        <v>78.3</v>
+      </c>
+      <c r="I9">
         <v>0.4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>29.3</v>
-      </c>
-      <c r="J9">
-        <v>78.3</v>
       </c>
       <c r="K9">
         <v>0.5610000000000001</v>
@@ -2880,13 +2880,13 @@
         <v>707</v>
       </c>
       <c r="H11">
+        <v>61</v>
+      </c>
+      <c r="I11">
         <v>0.475</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>11</v>
-      </c>
-      <c r="J11">
-        <v>61</v>
       </c>
       <c r="K11">
         <v>0.163</v>
@@ -2915,13 +2915,13 @@
         <v>707</v>
       </c>
       <c r="H12">
+        <v>55.3</v>
+      </c>
+      <c r="I12">
         <v>0.265</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>35.3</v>
-      </c>
-      <c r="J12">
-        <v>55.3</v>
       </c>
       <c r="K12">
         <v>0.507</v>
@@ -3055,13 +3055,13 @@
         <v>707</v>
       </c>
       <c r="H16">
+        <v>63.7</v>
+      </c>
+      <c r="I16">
         <v>0.492</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>14.7</v>
-      </c>
-      <c r="J16">
-        <v>63.7</v>
       </c>
       <c r="K16">
         <v>0.216</v>
@@ -3125,13 +3125,13 @@
         <v>707</v>
       </c>
       <c r="H18">
+        <v>69.3</v>
+      </c>
+      <c r="I18">
         <v>0.231</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>28.7</v>
-      </c>
-      <c r="J18">
-        <v>69.3</v>
       </c>
       <c r="K18">
         <v>0.45</v>
@@ -3160,13 +3160,13 @@
         <v>707</v>
       </c>
       <c r="H19">
+        <v>68.7</v>
+      </c>
+      <c r="I19">
         <v>0.267</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>48.3</v>
-      </c>
-      <c r="J19">
-        <v>68.7</v>
       </c>
       <c r="K19">
         <v>0.665</v>
@@ -3230,13 +3230,13 @@
         <v>707</v>
       </c>
       <c r="H21">
+        <v>65</v>
+      </c>
+      <c r="I21">
         <v>0.067</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>23.7</v>
-      </c>
-      <c r="J21">
-        <v>65</v>
       </c>
       <c r="K21">
         <v>0.341</v>
@@ -3300,13 +3300,13 @@
         <v>707</v>
       </c>
       <c r="H23">
+        <v>64.7</v>
+      </c>
+      <c r="I23">
         <v>0.304</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>40</v>
-      </c>
-      <c r="J23">
-        <v>64.7</v>
       </c>
       <c r="K23">
         <v>0.5610000000000001</v>
@@ -3335,13 +3335,13 @@
         <v>707</v>
       </c>
       <c r="H24">
+        <v>60.3</v>
+      </c>
+      <c r="I24">
         <v>0.337</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>18.7</v>
-      </c>
-      <c r="J24">
-        <v>60.3</v>
       </c>
       <c r="K24">
         <v>0.281</v>
@@ -3475,13 +3475,13 @@
         <v>707</v>
       </c>
       <c r="H28">
+        <v>66</v>
+      </c>
+      <c r="I28">
         <v>0.54</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>28.7</v>
-      </c>
-      <c r="J28">
-        <v>66</v>
       </c>
       <c r="K28">
         <v>0.352</v>
@@ -3580,13 +3580,13 @@
         <v>707</v>
       </c>
       <c r="H31">
+        <v>68.3</v>
+      </c>
+      <c r="I31">
         <v>0.4</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>33.3</v>
-      </c>
-      <c r="J31">
-        <v>68.3</v>
       </c>
       <c r="K31">
         <v>0.431</v>
@@ -3685,13 +3685,13 @@
         <v>707</v>
       </c>
       <c r="H34">
+        <v>73.7</v>
+      </c>
+      <c r="I34">
         <v>0.38</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>32</v>
-      </c>
-      <c r="J34">
-        <v>73.7</v>
       </c>
       <c r="K34">
         <v>0.527</v>
@@ -3720,13 +3720,13 @@
         <v>707</v>
       </c>
       <c r="H35">
+        <v>67.3</v>
+      </c>
+      <c r="I35">
         <v>0.569</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>28.3</v>
-      </c>
-      <c r="J35">
-        <v>67.3</v>
       </c>
       <c r="K35">
         <v>0.427</v>
@@ -3755,13 +3755,13 @@
         <v>707</v>
       </c>
       <c r="H36">
+        <v>57</v>
+      </c>
+      <c r="I36">
         <v>0.439</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>22.7</v>
-      </c>
-      <c r="J36">
-        <v>57</v>
       </c>
       <c r="K36">
         <v>0.337</v>
@@ -3825,13 +3825,13 @@
         <v>707</v>
       </c>
       <c r="H38">
+        <v>64.7</v>
+      </c>
+      <c r="I38">
         <v>0.485</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>19</v>
-      </c>
-      <c r="J38">
-        <v>64.7</v>
       </c>
       <c r="K38">
         <v>0.253</v>
@@ -3860,13 +3860,13 @@
         <v>707</v>
       </c>
       <c r="H39">
+        <v>69.3</v>
+      </c>
+      <c r="I39">
         <v>0.394</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>21.7</v>
-      </c>
-      <c r="J39">
-        <v>69.3</v>
       </c>
       <c r="K39">
         <v>0.297</v>
@@ -3930,13 +3930,13 @@
         <v>707</v>
       </c>
       <c r="H41">
+        <v>70</v>
+      </c>
+      <c r="I41">
         <v>0.3</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>26.3</v>
-      </c>
-      <c r="J41">
-        <v>70</v>
       </c>
       <c r="K41">
         <v>0.444</v>
@@ -3965,13 +3965,13 @@
         <v>707</v>
       </c>
       <c r="H42">
+        <v>63.3</v>
+      </c>
+      <c r="I42">
         <v>0.458</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>43.3</v>
-      </c>
-      <c r="J42">
-        <v>63.3</v>
       </c>
       <c r="K42">
         <v>0.647</v>
@@ -4035,13 +4035,13 @@
         <v>707</v>
       </c>
       <c r="H44">
+        <v>77.3</v>
+      </c>
+      <c r="I44">
         <v>0.345</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>25</v>
-      </c>
-      <c r="J44">
-        <v>77.3</v>
       </c>
       <c r="K44">
         <v>0.389</v>
@@ -4105,13 +4105,13 @@
         <v>707</v>
       </c>
       <c r="H46">
+        <v>84</v>
+      </c>
+      <c r="I46">
         <v>0.46</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>26.7</v>
-      </c>
-      <c r="J46">
-        <v>84</v>
       </c>
       <c r="K46">
         <v>0.406</v>
@@ -4140,13 +4140,13 @@
         <v>707</v>
       </c>
       <c r="H47">
+        <v>68.3</v>
+      </c>
+      <c r="I47">
         <v>0.434</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>24</v>
-      </c>
-      <c r="J47">
-        <v>68.3</v>
       </c>
       <c r="K47">
         <v>0.373</v>
@@ -4175,13 +4175,13 @@
         <v>707</v>
       </c>
       <c r="H48">
+        <v>59.3</v>
+      </c>
+      <c r="I48">
         <v>0.702</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>27.7</v>
-      </c>
-      <c r="J48">
-        <v>59.3</v>
       </c>
       <c r="K48">
         <v>0.426</v>
@@ -4245,13 +4245,13 @@
         <v>707</v>
       </c>
       <c r="H50">
+        <v>64.3</v>
+      </c>
+      <c r="I50">
         <v>0.554</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>15.7</v>
-      </c>
-      <c r="J50">
-        <v>64.3</v>
       </c>
       <c r="K50">
         <v>0.245</v>
@@ -4350,13 +4350,13 @@
         <v>707</v>
       </c>
       <c r="H53">
+        <v>63.7</v>
+      </c>
+      <c r="I53">
         <v>0.44</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>23.3</v>
-      </c>
-      <c r="J53">
-        <v>63.7</v>
       </c>
       <c r="K53">
         <v>0.374</v>
@@ -4385,13 +4385,13 @@
         <v>707</v>
       </c>
       <c r="H54">
+        <v>69.3</v>
+      </c>
+      <c r="I54">
         <v>0.481</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>23.7</v>
-      </c>
-      <c r="J54">
-        <v>69.3</v>
       </c>
       <c r="K54">
         <v>0.36</v>
@@ -4420,13 +4420,13 @@
         <v>707</v>
       </c>
       <c r="H55">
+        <v>82</v>
+      </c>
+      <c r="I55">
         <v>0.407</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>22.3</v>
-      </c>
-      <c r="J55">
-        <v>82</v>
       </c>
       <c r="K55">
         <v>0.309</v>
@@ -4455,13 +4455,13 @@
         <v>707</v>
       </c>
       <c r="H56">
+        <v>61</v>
+      </c>
+      <c r="I56">
         <v>0.235</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>28</v>
-      </c>
-      <c r="J56">
-        <v>61</v>
       </c>
       <c r="K56">
         <v>0.382</v>
@@ -4490,13 +4490,13 @@
         <v>707</v>
       </c>
       <c r="H57">
+        <v>79.7</v>
+      </c>
+      <c r="I57">
         <v>0.536</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>47.3</v>
-      </c>
-      <c r="J57">
-        <v>79.7</v>
       </c>
       <c r="K57">
         <v>0.696</v>
@@ -4560,13 +4560,13 @@
         <v>707</v>
       </c>
       <c r="H59">
+        <v>63.7</v>
+      </c>
+      <c r="I59">
         <v>0.34</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>34.7</v>
-      </c>
-      <c r="J59">
-        <v>63.7</v>
       </c>
       <c r="K59">
         <v>0.493</v>
@@ -4595,13 +4595,13 @@
         <v>707</v>
       </c>
       <c r="H60">
+        <v>68.7</v>
+      </c>
+      <c r="I60">
         <v>0.456</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>19.7</v>
-      </c>
-      <c r="J60">
-        <v>68.7</v>
       </c>
       <c r="K60">
         <v>0.254</v>
@@ -4630,13 +4630,13 @@
         <v>707</v>
       </c>
       <c r="H61">
+        <v>67.7</v>
+      </c>
+      <c r="I61">
         <v>0.35</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>38.7</v>
-      </c>
-      <c r="J61">
-        <v>67.7</v>
       </c>
       <c r="K61">
         <v>0.535</v>
@@ -4665,13 +4665,13 @@
         <v>707</v>
       </c>
       <c r="H62">
+        <v>59</v>
+      </c>
+      <c r="I62">
         <v>0.751</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>25</v>
-      </c>
-      <c r="J62">
-        <v>59</v>
       </c>
       <c r="K62">
         <v>0.333</v>
@@ -4700,13 +4700,13 @@
         <v>707</v>
       </c>
       <c r="H63">
+        <v>66</v>
+      </c>
+      <c r="I63">
         <v>0.414</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>15.3</v>
-      </c>
-      <c r="J63">
-        <v>66</v>
       </c>
       <c r="K63">
         <v>0.266</v>
@@ -4735,13 +4735,13 @@
         <v>707</v>
       </c>
       <c r="H64">
+        <v>70.3</v>
+      </c>
+      <c r="I64">
         <v>0.308</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>31.3</v>
-      </c>
-      <c r="J64">
-        <v>70.3</v>
       </c>
       <c r="K64">
         <v>0.427</v>
@@ -4770,13 +4770,13 @@
         <v>707</v>
       </c>
       <c r="H65">
+        <v>64.3</v>
+      </c>
+      <c r="I65">
         <v>0.72</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>21.7</v>
-      </c>
-      <c r="J65">
-        <v>64.3</v>
       </c>
       <c r="K65">
         <v>0.269</v>
@@ -4875,13 +4875,13 @@
         <v>707</v>
       </c>
       <c r="H68">
+        <v>62.3</v>
+      </c>
+      <c r="I68">
         <v>0.535</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>10</v>
-      </c>
-      <c r="J68">
-        <v>62.3</v>
       </c>
       <c r="K68">
         <v>0.154</v>
@@ -4910,13 +4910,13 @@
         <v>707</v>
       </c>
       <c r="H69">
+        <v>60</v>
+      </c>
+      <c r="I69">
         <v>0.394</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>12</v>
-      </c>
-      <c r="J69">
-        <v>60</v>
       </c>
       <c r="K69">
         <v>0.176</v>
@@ -4945,13 +4945,13 @@
         <v>707</v>
       </c>
       <c r="H70">
+        <v>69.3</v>
+      </c>
+      <c r="I70">
         <v>0.365</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>22</v>
-      </c>
-      <c r="J70">
-        <v>69.3</v>
       </c>
       <c r="K70">
         <v>0.319</v>
@@ -5015,13 +5015,13 @@
         <v>707</v>
       </c>
       <c r="H72">
+        <v>63.7</v>
+      </c>
+      <c r="I72">
         <v>0.257</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>40</v>
-      </c>
-      <c r="J72">
-        <v>63.7</v>
       </c>
       <c r="K72">
         <v>0.625</v>
@@ -5050,13 +5050,13 @@
         <v>707</v>
       </c>
       <c r="H73">
+        <v>60</v>
+      </c>
+      <c r="I73">
         <v>0.328</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>32.7</v>
-      </c>
-      <c r="J73">
-        <v>60</v>
       </c>
       <c r="K73">
         <v>0.516</v>
@@ -5330,13 +5330,13 @@
         <v>707</v>
       </c>
       <c r="H81">
+        <v>75.3</v>
+      </c>
+      <c r="I81">
         <v>0.314</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>37.7</v>
-      </c>
-      <c r="J81">
-        <v>75.3</v>
       </c>
       <c r="K81">
         <v>0.579</v>
@@ -5365,13 +5365,13 @@
         <v>707</v>
       </c>
       <c r="H82">
+        <v>85.3</v>
+      </c>
+      <c r="I82">
         <v>0.395</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>38.3</v>
-      </c>
-      <c r="J82">
-        <v>85.3</v>
       </c>
       <c r="K82">
         <v>0.525</v>
@@ -5540,13 +5540,13 @@
         <v>707</v>
       </c>
       <c r="H87">
+        <v>61.3</v>
+      </c>
+      <c r="I87">
         <v>0.196</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>23.3</v>
-      </c>
-      <c r="J87">
-        <v>61.3</v>
       </c>
       <c r="K87">
         <v>0.324</v>
@@ -5575,13 +5575,13 @@
         <v>707</v>
       </c>
       <c r="H88">
+        <v>73</v>
+      </c>
+      <c r="I88">
         <v>0.516</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>38.3</v>
-      </c>
-      <c r="J88">
-        <v>73</v>
       </c>
       <c r="K88">
         <v>0.507</v>
@@ -5645,13 +5645,13 @@
         <v>707</v>
       </c>
       <c r="H90">
+        <v>62.7</v>
+      </c>
+      <c r="I90">
         <v>0.34</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>15.7</v>
-      </c>
-      <c r="J90">
-        <v>62.7</v>
       </c>
       <c r="K90">
         <v>0.251</v>
@@ -5680,13 +5680,13 @@
         <v>707</v>
       </c>
       <c r="H91">
+        <v>72.3</v>
+      </c>
+      <c r="I91">
         <v>0.327</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>35.7</v>
-      </c>
-      <c r="J91">
-        <v>72.3</v>
       </c>
       <c r="K91">
         <v>0.51</v>
@@ -5715,13 +5715,13 @@
         <v>707</v>
       </c>
       <c r="H92">
+        <v>54</v>
+      </c>
+      <c r="I92">
         <v>0.302</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>14</v>
-      </c>
-      <c r="J92">
-        <v>54</v>
       </c>
       <c r="K92">
         <v>0.197</v>
@@ -5750,13 +5750,13 @@
         <v>707</v>
       </c>
       <c r="H93">
+        <v>62.7</v>
+      </c>
+      <c r="I93">
         <v>0.314</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>27.7</v>
-      </c>
-      <c r="J93">
-        <v>62.7</v>
       </c>
       <c r="K93">
         <v>0.399</v>
@@ -5820,13 +5820,13 @@
         <v>707</v>
       </c>
       <c r="H95">
+        <v>69.3</v>
+      </c>
+      <c r="I95">
         <v>0.25</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>28</v>
-      </c>
-      <c r="J95">
-        <v>69.3</v>
       </c>
       <c r="K95">
         <v>0.384</v>
@@ -5890,13 +5890,13 @@
         <v>707</v>
       </c>
       <c r="H97">
+        <v>71</v>
+      </c>
+      <c r="I97">
         <v>0.437</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>25.3</v>
-      </c>
-      <c r="J97">
-        <v>71</v>
       </c>
       <c r="K97">
         <v>0.425</v>
@@ -5925,13 +5925,13 @@
         <v>707</v>
       </c>
       <c r="H98">
+        <v>69</v>
+      </c>
+      <c r="I98">
         <v>0.314</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>21.3</v>
-      </c>
-      <c r="J98">
-        <v>69</v>
       </c>
       <c r="K98">
         <v>0.354</v>
@@ -6030,13 +6030,13 @@
         <v>707</v>
       </c>
       <c r="H101">
+        <v>80.3</v>
+      </c>
+      <c r="I101">
         <v>0.373</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>11.7</v>
-      </c>
-      <c r="J101">
-        <v>80.3</v>
       </c>
       <c r="K101">
         <v>0.169</v>
@@ -6065,13 +6065,13 @@
         <v>707</v>
       </c>
       <c r="H102">
+        <v>66</v>
+      </c>
+      <c r="I102">
         <v>0.49</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>36</v>
-      </c>
-      <c r="J102">
-        <v>66</v>
       </c>
       <c r="K102">
         <v>0.5600000000000001</v>
@@ -6100,13 +6100,13 @@
         <v>707</v>
       </c>
       <c r="H103">
+        <v>60.7</v>
+      </c>
+      <c r="I103">
         <v>0.192</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>31</v>
-      </c>
-      <c r="J103">
-        <v>60.7</v>
       </c>
       <c r="K103">
         <v>0.489</v>
@@ -6135,13 +6135,13 @@
         <v>707</v>
       </c>
       <c r="H104">
+        <v>68</v>
+      </c>
+      <c r="I104">
         <v>0.172</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>25.3</v>
-      </c>
-      <c r="J104">
-        <v>68</v>
       </c>
       <c r="K104">
         <v>0.402</v>
@@ -6170,13 +6170,13 @@
         <v>707</v>
       </c>
       <c r="H105">
+        <v>79.7</v>
+      </c>
+      <c r="I105">
         <v>0.573</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>21.7</v>
-      </c>
-      <c r="J105">
-        <v>79.7</v>
       </c>
       <c r="K105">
         <v>0.337</v>
@@ -6240,13 +6240,13 @@
         <v>707</v>
       </c>
       <c r="H107">
+        <v>69</v>
+      </c>
+      <c r="I107">
         <v>0.353</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>24.3</v>
-      </c>
-      <c r="J107">
-        <v>69</v>
       </c>
       <c r="K107">
         <v>0.415</v>
@@ -6345,13 +6345,13 @@
         <v>707</v>
       </c>
       <c r="H110">
+        <v>71</v>
+      </c>
+      <c r="I110">
         <v>0.188</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>40.3</v>
-      </c>
-      <c r="J110">
-        <v>71</v>
       </c>
       <c r="K110">
         <v>0.654</v>
@@ -6415,13 +6415,13 @@
         <v>707</v>
       </c>
       <c r="H112">
+        <v>67.3</v>
+      </c>
+      <c r="I112">
         <v>0.302</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>31</v>
-      </c>
-      <c r="J112">
-        <v>67.3</v>
       </c>
       <c r="K112">
         <v>0.522</v>
@@ -6450,13 +6450,13 @@
         <v>707</v>
       </c>
       <c r="H113">
+        <v>64</v>
+      </c>
+      <c r="I113">
         <v>0.255</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>15.3</v>
-      </c>
-      <c r="J113">
-        <v>64</v>
       </c>
       <c r="K113">
         <v>0.223</v>
@@ -6485,13 +6485,13 @@
         <v>707</v>
       </c>
       <c r="H114">
+        <v>61.7</v>
+      </c>
+      <c r="I114">
         <v>0.335</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>37.7</v>
-      </c>
-      <c r="J114">
-        <v>61.7</v>
       </c>
       <c r="K114">
         <v>0.579</v>
@@ -6520,13 +6520,13 @@
         <v>707</v>
       </c>
       <c r="H115">
+        <v>70.7</v>
+      </c>
+      <c r="I115">
         <v>0.236</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>37.7</v>
-      </c>
-      <c r="J115">
-        <v>70.7</v>
       </c>
       <c r="K115">
         <v>0.551</v>
@@ -6555,13 +6555,13 @@
         <v>707</v>
       </c>
       <c r="H116">
+        <v>64</v>
+      </c>
+      <c r="I116">
         <v>0.245</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>29.7</v>
-      </c>
-      <c r="J116">
-        <v>64</v>
       </c>
       <c r="K116">
         <v>0.456</v>
@@ -6625,13 +6625,13 @@
         <v>707</v>
       </c>
       <c r="H118">
+        <v>71.7</v>
+      </c>
+      <c r="I118">
         <v>0.386</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>22</v>
-      </c>
-      <c r="J118">
-        <v>71.7</v>
       </c>
       <c r="K118">
         <v>0.335</v>
@@ -6660,13 +6660,13 @@
         <v>707</v>
       </c>
       <c r="H119">
+        <v>73</v>
+      </c>
+      <c r="I119">
         <v>0.338</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>18.7</v>
-      </c>
-      <c r="J119">
-        <v>73</v>
       </c>
       <c r="K119">
         <v>0.243</v>
@@ -6765,13 +6765,13 @@
         <v>707</v>
       </c>
       <c r="H122">
+        <v>62.3</v>
+      </c>
+      <c r="I122">
         <v>0.626</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>29</v>
-      </c>
-      <c r="J122">
-        <v>62.3</v>
       </c>
       <c r="K122">
         <v>0.355</v>
@@ -6835,13 +6835,13 @@
         <v>707</v>
       </c>
       <c r="H124">
+        <v>75</v>
+      </c>
+      <c r="I124">
         <v>0.409</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>35.3</v>
-      </c>
-      <c r="J124">
-        <v>75</v>
       </c>
       <c r="K124">
         <v>0.484</v>
@@ -6870,13 +6870,13 @@
         <v>707</v>
       </c>
       <c r="H125">
+        <v>67.7</v>
+      </c>
+      <c r="I125">
         <v>0.315</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>32.3</v>
-      </c>
-      <c r="J125">
-        <v>67.7</v>
       </c>
       <c r="K125">
         <v>0.471</v>
@@ -6905,13 +6905,13 @@
         <v>707</v>
       </c>
       <c r="H126">
+        <v>61</v>
+      </c>
+      <c r="I126">
         <v>0.508</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>24.7</v>
-      </c>
-      <c r="J126">
-        <v>61</v>
       </c>
       <c r="K126">
         <v>0.374</v>
@@ -6940,13 +6940,13 @@
         <v>707</v>
       </c>
       <c r="H127">
+        <v>59.7</v>
+      </c>
+      <c r="I127">
         <v>0.6929999999999999</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>24</v>
-      </c>
-      <c r="J127">
-        <v>59.7</v>
       </c>
       <c r="K127">
         <v>0.34</v>
@@ -6975,13 +6975,13 @@
         <v>707</v>
       </c>
       <c r="H128">
+        <v>69.7</v>
+      </c>
+      <c r="I128">
         <v>0.239</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>33.3</v>
-      </c>
-      <c r="J128">
-        <v>69.7</v>
       </c>
       <c r="K128">
         <v>0.459</v>
@@ -7045,13 +7045,13 @@
         <v>707</v>
       </c>
       <c r="H130">
+        <v>72.3</v>
+      </c>
+      <c r="I130">
         <v>0.336</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>45</v>
-      </c>
-      <c r="J130">
-        <v>72.3</v>
       </c>
       <c r="K130">
         <v>0.6820000000000001</v>
@@ -7080,13 +7080,13 @@
         <v>707</v>
       </c>
       <c r="H131">
+        <v>77.3</v>
+      </c>
+      <c r="I131">
         <v>0.427</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>28</v>
-      </c>
-      <c r="J131">
-        <v>77.3</v>
       </c>
       <c r="K131">
         <v>0.418</v>
@@ -7115,13 +7115,13 @@
         <v>707</v>
       </c>
       <c r="H132">
+        <v>56</v>
+      </c>
+      <c r="I132">
         <v>0.339</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>31.3</v>
-      </c>
-      <c r="J132">
-        <v>56</v>
       </c>
       <c r="K132">
         <v>0.418</v>
@@ -7150,13 +7150,13 @@
         <v>707</v>
       </c>
       <c r="H133">
+        <v>70.7</v>
+      </c>
+      <c r="I133">
         <v>0.491</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>35</v>
-      </c>
-      <c r="J133">
-        <v>70.7</v>
       </c>
       <c r="K133">
         <v>0.479</v>
@@ -7220,13 +7220,13 @@
         <v>707</v>
       </c>
       <c r="H135">
+        <v>72.7</v>
+      </c>
+      <c r="I135">
         <v>0.372</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>36.3</v>
-      </c>
-      <c r="J135">
-        <v>72.7</v>
       </c>
       <c r="K135">
         <v>0.571</v>
@@ -7255,13 +7255,13 @@
         <v>707</v>
       </c>
       <c r="H136">
+        <v>69.7</v>
+      </c>
+      <c r="I136">
         <v>0.354</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>25</v>
-      </c>
-      <c r="J136">
-        <v>69.7</v>
       </c>
       <c r="K136">
         <v>0.405</v>
@@ -7325,13 +7325,13 @@
         <v>707</v>
       </c>
       <c r="H138">
+        <v>50.7</v>
+      </c>
+      <c r="I138">
         <v>0.553</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>32.3</v>
-      </c>
-      <c r="J138">
-        <v>50.7</v>
       </c>
       <c r="K138">
         <v>0.406</v>
@@ -7395,13 +7395,13 @@
         <v>707</v>
       </c>
       <c r="H140">
+        <v>71.7</v>
+      </c>
+      <c r="I140">
         <v>0.312</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>22.3</v>
-      </c>
-      <c r="J140">
-        <v>71.7</v>
       </c>
       <c r="K140">
         <v>0.362</v>
@@ -7465,13 +7465,13 @@
         <v>707</v>
       </c>
       <c r="H142">
+        <v>68</v>
+      </c>
+      <c r="I142">
         <v>0.319</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>38.7</v>
-      </c>
-      <c r="J142">
-        <v>68</v>
       </c>
       <c r="K142">
         <v>0.592</v>
@@ -7675,13 +7675,13 @@
         <v>707</v>
       </c>
       <c r="H148">
+        <v>58.3</v>
+      </c>
+      <c r="I148">
         <v>0.411</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>22.7</v>
-      </c>
-      <c r="J148">
-        <v>58.3</v>
       </c>
       <c r="K148">
         <v>0.311</v>
@@ -7745,13 +7745,13 @@
         <v>707</v>
       </c>
       <c r="H150">
+        <v>71.3</v>
+      </c>
+      <c r="I150">
         <v>0.318</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>35.3</v>
-      </c>
-      <c r="J150">
-        <v>71.3</v>
       </c>
       <c r="K150">
         <v>0.473</v>
@@ -7815,13 +7815,13 @@
         <v>707</v>
       </c>
       <c r="H152">
+        <v>62.7</v>
+      </c>
+      <c r="I152">
         <v>0.197</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>16.7</v>
-      </c>
-      <c r="J152">
-        <v>62.7</v>
       </c>
       <c r="K152">
         <v>0.243</v>
@@ -7850,13 +7850,13 @@
         <v>707</v>
       </c>
       <c r="H153">
+        <v>62</v>
+      </c>
+      <c r="I153">
         <v>0.366</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>11.7</v>
-      </c>
-      <c r="J153">
-        <v>62</v>
       </c>
       <c r="K153">
         <v>0.19</v>
@@ -7955,13 +7955,13 @@
         <v>707</v>
       </c>
       <c r="H156">
+        <v>72</v>
+      </c>
+      <c r="I156">
         <v>0.431</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>20.7</v>
-      </c>
-      <c r="J156">
-        <v>72</v>
       </c>
       <c r="K156">
         <v>0.307</v>
@@ -7990,13 +7990,13 @@
         <v>707</v>
       </c>
       <c r="H157">
+        <v>76.3</v>
+      </c>
+      <c r="I157">
         <v>0.397</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>28.3</v>
-      </c>
-      <c r="J157">
-        <v>76.3</v>
       </c>
       <c r="K157">
         <v>0.472</v>
@@ -8025,13 +8025,13 @@
         <v>707</v>
       </c>
       <c r="H158">
+        <v>54.7</v>
+      </c>
+      <c r="I158">
         <v>0.53</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>28.7</v>
-      </c>
-      <c r="J158">
-        <v>54.7</v>
       </c>
       <c r="K158">
         <v>0.377</v>
@@ -8095,13 +8095,13 @@
         <v>707</v>
       </c>
       <c r="H160">
+        <v>75.7</v>
+      </c>
+      <c r="I160">
         <v>0.502</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>21</v>
-      </c>
-      <c r="J160">
-        <v>75.7</v>
       </c>
       <c r="K160">
         <v>0.279</v>
@@ -8130,13 +8130,13 @@
         <v>707</v>
       </c>
       <c r="H161">
+        <v>70</v>
+      </c>
+      <c r="I161">
         <v>0.352</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>19.7</v>
-      </c>
-      <c r="J161">
-        <v>70</v>
       </c>
       <c r="K161">
         <v>0.282</v>
@@ -8270,13 +8270,13 @@
         <v>707</v>
       </c>
       <c r="H165">
+        <v>66.3</v>
+      </c>
+      <c r="I165">
         <v>0.206</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>24.7</v>
-      </c>
-      <c r="J165">
-        <v>66.3</v>
       </c>
       <c r="K165">
         <v>0.359</v>
@@ -8305,13 +8305,13 @@
         <v>707</v>
       </c>
       <c r="H166">
+        <v>62.7</v>
+      </c>
+      <c r="I166">
         <v>0.516</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>22.7</v>
-      </c>
-      <c r="J166">
-        <v>62.7</v>
       </c>
       <c r="K166">
         <v>0.296</v>
@@ -8375,13 +8375,13 @@
         <v>707</v>
       </c>
       <c r="H168">
+        <v>67.3</v>
+      </c>
+      <c r="I168">
         <v>0.287</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>29.3</v>
-      </c>
-      <c r="J168">
-        <v>67.3</v>
       </c>
       <c r="K168">
         <v>0.421</v>
@@ -8410,13 +8410,13 @@
         <v>707</v>
       </c>
       <c r="H169">
+        <v>76</v>
+      </c>
+      <c r="I169">
         <v>0.285</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>32</v>
-      </c>
-      <c r="J169">
-        <v>76</v>
       </c>
       <c r="K169">
         <v>0.5649999999999999</v>
@@ -8550,13 +8550,13 @@
         <v>707</v>
       </c>
       <c r="H173">
+        <v>62.7</v>
+      </c>
+      <c r="I173">
         <v>0.335</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>27.7</v>
-      </c>
-      <c r="J173">
-        <v>62.7</v>
       </c>
       <c r="K173">
         <v>0.356</v>
@@ -8690,13 +8690,13 @@
         <v>707</v>
       </c>
       <c r="H177">
+        <v>76</v>
+      </c>
+      <c r="I177">
         <v>0.333</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>43.7</v>
-      </c>
-      <c r="J177">
-        <v>76</v>
       </c>
       <c r="K177">
         <v>0.553</v>
@@ -8795,13 +8795,13 @@
         <v>707</v>
       </c>
       <c r="H180">
+        <v>75.3</v>
+      </c>
+      <c r="I180">
         <v>0.35</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>28.7</v>
-      </c>
-      <c r="J180">
-        <v>75.3</v>
       </c>
       <c r="K180">
         <v>0.417</v>
@@ -8830,13 +8830,13 @@
         <v>707</v>
       </c>
       <c r="H181">
+        <v>75.7</v>
+      </c>
+      <c r="I181">
         <v>0.211</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>24.3</v>
-      </c>
-      <c r="J181">
-        <v>75.7</v>
       </c>
       <c r="K181">
         <v>0.417</v>
@@ -8865,13 +8865,13 @@
         <v>707</v>
       </c>
       <c r="H182">
+        <v>72.7</v>
+      </c>
+      <c r="I182">
         <v>0.381</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>34.3</v>
-      </c>
-      <c r="J182">
-        <v>72.7</v>
       </c>
       <c r="K182">
         <v>0.523</v>
@@ -8900,13 +8900,13 @@
         <v>707</v>
       </c>
       <c r="H183">
+        <v>76</v>
+      </c>
+      <c r="I183">
         <v>0.351</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>34.3</v>
-      </c>
-      <c r="J183">
-        <v>76</v>
       </c>
       <c r="K183">
         <v>0.528</v>
@@ -8935,13 +8935,13 @@
         <v>707</v>
       </c>
       <c r="H184">
+        <v>81</v>
+      </c>
+      <c r="I184">
         <v>0.44</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>28.7</v>
-      </c>
-      <c r="J184">
-        <v>81</v>
       </c>
       <c r="K184">
         <v>0.424</v>
@@ -8970,13 +8970,13 @@
         <v>707</v>
       </c>
       <c r="H185">
+        <v>69</v>
+      </c>
+      <c r="I185">
         <v>0.357</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>51.3</v>
-      </c>
-      <c r="J185">
-        <v>69</v>
       </c>
       <c r="K185">
         <v>0.733</v>
@@ -9005,13 +9005,13 @@
         <v>707</v>
       </c>
       <c r="H186">
+        <v>65</v>
+      </c>
+      <c r="I186">
         <v>0.41</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>26.3</v>
-      </c>
-      <c r="J186">
-        <v>65</v>
       </c>
       <c r="K186">
         <v>0.326</v>
@@ -9040,13 +9040,13 @@
         <v>707</v>
       </c>
       <c r="H187">
+        <v>59.7</v>
+      </c>
+      <c r="I187">
         <v>0.358</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>31.3</v>
-      </c>
-      <c r="J187">
-        <v>59.7</v>
       </c>
       <c r="K187">
         <v>0.443</v>
@@ -9075,13 +9075,13 @@
         <v>707</v>
       </c>
       <c r="H188">
+        <v>70.3</v>
+      </c>
+      <c r="I188">
         <v>0.308</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>34.3</v>
-      </c>
-      <c r="J188">
-        <v>70.3</v>
       </c>
       <c r="K188">
         <v>0.528</v>
@@ -9110,13 +9110,13 @@
         <v>707</v>
       </c>
       <c r="H189">
+        <v>70.7</v>
+      </c>
+      <c r="I189">
         <v>0.179</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>44</v>
-      </c>
-      <c r="J189">
-        <v>70.7</v>
       </c>
       <c r="K189">
         <v>0.606</v>
@@ -9145,13 +9145,13 @@
         <v>707</v>
       </c>
       <c r="H190">
+        <v>69.3</v>
+      </c>
+      <c r="I190">
         <v>0.293</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>35</v>
-      </c>
-      <c r="J190">
-        <v>69.3</v>
       </c>
       <c r="K190">
         <v>0.625</v>
@@ -9180,13 +9180,13 @@
         <v>707</v>
       </c>
       <c r="H191">
+        <v>66.7</v>
+      </c>
+      <c r="I191">
         <v>0.225</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>42</v>
-      </c>
-      <c r="J191">
-        <v>66.7</v>
       </c>
       <c r="K191">
         <v>0.612</v>
@@ -9215,13 +9215,13 @@
         <v>707</v>
       </c>
       <c r="H192">
+        <v>74.3</v>
+      </c>
+      <c r="I192">
         <v>0.444</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>17</v>
-      </c>
-      <c r="J192">
-        <v>74.3</v>
       </c>
       <c r="K192">
         <v>0.251</v>
@@ -9285,13 +9285,13 @@
         <v>707</v>
       </c>
       <c r="H194">
+        <v>77.3</v>
+      </c>
+      <c r="I194">
         <v>0.5649999999999999</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>20.7</v>
-      </c>
-      <c r="J194">
-        <v>77.3</v>
       </c>
       <c r="K194">
         <v>0.33</v>
@@ -9355,13 +9355,13 @@
         <v>707</v>
       </c>
       <c r="H196">
+        <v>76</v>
+      </c>
+      <c r="I196">
         <v>0.425</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>35.7</v>
-      </c>
-      <c r="J196">
-        <v>76</v>
       </c>
       <c r="K196">
         <v>0.478</v>
@@ -9530,13 +9530,13 @@
         <v>707</v>
       </c>
       <c r="H201">
+        <v>66</v>
+      </c>
+      <c r="I201">
         <v>0.596</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>17.7</v>
-      </c>
-      <c r="J201">
-        <v>66</v>
       </c>
       <c r="K201">
         <v>0.28</v>
@@ -9565,13 +9565,13 @@
         <v>707</v>
       </c>
       <c r="H202">
+        <v>70.7</v>
+      </c>
+      <c r="I202">
         <v>0.325</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>12.3</v>
-      </c>
-      <c r="J202">
-        <v>70.7</v>
       </c>
       <c r="K202">
         <v>0.231</v>
@@ -9635,13 +9635,13 @@
         <v>707</v>
       </c>
       <c r="H204">
+        <v>60</v>
+      </c>
+      <c r="I204">
         <v>0.15</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>33.7</v>
-      </c>
-      <c r="J204">
-        <v>60</v>
       </c>
       <c r="K204">
         <v>0.465</v>
@@ -9670,13 +9670,13 @@
         <v>707</v>
       </c>
       <c r="H205">
+        <v>62.3</v>
+      </c>
+      <c r="I205">
         <v>0.166</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>22.3</v>
-      </c>
-      <c r="J205">
-        <v>62.3</v>
       </c>
       <c r="K205">
         <v>0.374</v>
@@ -9705,13 +9705,13 @@
         <v>707</v>
       </c>
       <c r="H206">
+        <v>57.3</v>
+      </c>
+      <c r="I206">
         <v>0.326</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>24.7</v>
-      </c>
-      <c r="J206">
-        <v>57.3</v>
       </c>
       <c r="K206">
         <v>0.343</v>
@@ -9740,13 +9740,13 @@
         <v>707</v>
       </c>
       <c r="H207">
+        <v>83.7</v>
+      </c>
+      <c r="I207">
         <v>0.339</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>20.7</v>
-      </c>
-      <c r="J207">
-        <v>83.7</v>
       </c>
       <c r="K207">
         <v>0.337</v>
@@ -9775,13 +9775,13 @@
         <v>707</v>
       </c>
       <c r="H208">
+        <v>67</v>
+      </c>
+      <c r="I208">
         <v>0.353</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>32.3</v>
-      </c>
-      <c r="J208">
-        <v>67</v>
       </c>
       <c r="K208">
         <v>0.483</v>
@@ -9810,13 +9810,13 @@
         <v>707</v>
       </c>
       <c r="H209">
+        <v>60.3</v>
+      </c>
+      <c r="I209">
         <v>0.586</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>20.7</v>
-      </c>
-      <c r="J209">
-        <v>60.3</v>
       </c>
       <c r="K209">
         <v>0.316</v>
@@ -9845,13 +9845,13 @@
         <v>707</v>
       </c>
       <c r="H210">
+        <v>57</v>
+      </c>
+      <c r="I210">
         <v>0.275</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>29.7</v>
-      </c>
-      <c r="J210">
-        <v>57</v>
       </c>
       <c r="K210">
         <v>0.454</v>
@@ -9915,13 +9915,13 @@
         <v>707</v>
       </c>
       <c r="H212">
+        <v>82.7</v>
+      </c>
+      <c r="I212">
         <v>0.431</v>
       </c>
-      <c r="I212">
+      <c r="J212">
         <v>22.7</v>
-      </c>
-      <c r="J212">
-        <v>82.7</v>
       </c>
       <c r="K212">
         <v>0.309</v>
@@ -9950,13 +9950,13 @@
         <v>707</v>
       </c>
       <c r="H213">
+        <v>65.3</v>
+      </c>
+      <c r="I213">
         <v>0.719</v>
       </c>
-      <c r="I213">
+      <c r="J213">
         <v>12.7</v>
-      </c>
-      <c r="J213">
-        <v>65.3</v>
       </c>
       <c r="K213">
         <v>0.205</v>
@@ -9985,13 +9985,13 @@
         <v>707</v>
       </c>
       <c r="H214">
+        <v>61.7</v>
+      </c>
+      <c r="I214">
         <v>0.481</v>
       </c>
-      <c r="I214">
+      <c r="J214">
         <v>34</v>
-      </c>
-      <c r="J214">
-        <v>61.7</v>
       </c>
       <c r="K214">
         <v>0.474</v>
@@ -10020,13 +10020,13 @@
         <v>707</v>
       </c>
       <c r="H215">
+        <v>67.7</v>
+      </c>
+      <c r="I215">
         <v>0.261</v>
       </c>
-      <c r="I215">
+      <c r="J215">
         <v>38.3</v>
-      </c>
-      <c r="J215">
-        <v>67.7</v>
       </c>
       <c r="K215">
         <v>0.584</v>
@@ -10055,13 +10055,13 @@
         <v>707</v>
       </c>
       <c r="H216">
+        <v>66.7</v>
+      </c>
+      <c r="I216">
         <v>0.285</v>
       </c>
-      <c r="I216">
+      <c r="J216">
         <v>35.7</v>
-      </c>
-      <c r="J216">
-        <v>66.7</v>
       </c>
       <c r="K216">
         <v>0.5570000000000001</v>
@@ -10160,13 +10160,13 @@
         <v>707</v>
       </c>
       <c r="H219">
+        <v>72.7</v>
+      </c>
+      <c r="I219">
         <v>0.404</v>
       </c>
-      <c r="I219">
+      <c r="J219">
         <v>25</v>
-      </c>
-      <c r="J219">
-        <v>72.7</v>
       </c>
       <c r="K219">
         <v>0.35</v>
@@ -10195,13 +10195,13 @@
         <v>707</v>
       </c>
       <c r="H220">
+        <v>70</v>
+      </c>
+      <c r="I220">
         <v>0.495</v>
       </c>
-      <c r="I220">
+      <c r="J220">
         <v>27.7</v>
-      </c>
-      <c r="J220">
-        <v>70</v>
       </c>
       <c r="K220">
         <v>0.426</v>
@@ -10230,13 +10230,13 @@
         <v>707</v>
       </c>
       <c r="H221">
+        <v>69.7</v>
+      </c>
+      <c r="I221">
         <v>0.455</v>
       </c>
-      <c r="I221">
+      <c r="J221">
         <v>16</v>
-      </c>
-      <c r="J221">
-        <v>69.7</v>
       </c>
       <c r="K221">
         <v>0.244</v>
@@ -10300,13 +10300,13 @@
         <v>707</v>
       </c>
       <c r="H223">
+        <v>69.7</v>
+      </c>
+      <c r="I223">
         <v>0.478</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>18.3</v>
-      </c>
-      <c r="J223">
-        <v>69.7</v>
       </c>
       <c r="K223">
         <v>0.307</v>
@@ -10405,13 +10405,13 @@
         <v>707</v>
       </c>
       <c r="H226">
+        <v>70.7</v>
+      </c>
+      <c r="I226">
         <v>0.255</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>41.7</v>
-      </c>
-      <c r="J226">
-        <v>70.7</v>
       </c>
       <c r="K226">
         <v>0.5629999999999999</v>
@@ -10440,13 +10440,13 @@
         <v>707</v>
       </c>
       <c r="H227">
+        <v>69</v>
+      </c>
+      <c r="I227">
         <v>0.483</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>29.7</v>
-      </c>
-      <c r="J227">
-        <v>69</v>
       </c>
       <c r="K227">
         <v>0.484</v>
@@ -10475,13 +10475,13 @@
         <v>707</v>
       </c>
       <c r="H228">
+        <v>76</v>
+      </c>
+      <c r="I228">
         <v>0.544</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>35.7</v>
-      </c>
-      <c r="J228">
-        <v>76</v>
       </c>
       <c r="K228">
         <v>0.482</v>
